--- a/processed/subject_statistics.xlsx
+++ b/processed/subject_statistics.xlsx
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11739,7 +11739,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -11974,7 +11974,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -18930,7 +18930,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19541,7 +19541,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -19729,7 +19729,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -19870,7 +19870,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -19917,7 +19917,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -26309,7 +26309,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -26450,7 +26450,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -26497,7 +26497,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -26544,7 +26544,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -26638,7 +26638,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -38153,7 +38153,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -38200,7 +38200,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -38247,7 +38247,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -38294,7 +38294,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -38341,7 +38341,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -38388,7 +38388,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -38482,7 +38482,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -38529,7 +38529,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -38576,7 +38576,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -38623,7 +38623,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -38670,7 +38670,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -38717,7 +38717,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -38764,7 +38764,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -38811,7 +38811,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -38858,7 +38858,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -38905,7 +38905,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -38952,7 +38952,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Bắc</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -45344,7 +45344,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -45391,7 +45391,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -45438,7 +45438,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -45532,7 +45532,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -45579,7 +45579,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -45626,7 +45626,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -45673,7 +45673,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -45720,7 +45720,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -46190,7 +46190,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -46237,7 +46237,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -46284,7 +46284,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -46331,7 +46331,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -46378,7 +46378,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -46472,7 +46472,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -46519,7 +46519,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -46566,7 +46566,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -52958,7 +52958,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -53005,7 +53005,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -53052,7 +53052,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -53099,7 +53099,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -53146,7 +53146,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -53193,7 +53193,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -53240,7 +53240,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -53287,7 +53287,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -53334,7 +53334,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Trung</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">

--- a/processed/subject_statistics.xlsx
+++ b/processed/subject_statistics.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subject Statistics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thống kê môn" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Năm</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Khu vực</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Province</t>
+          <t>Tỉnh/Thành phố</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Subject</t>
+          <t>Môn</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Number of Students</t>
+          <t>Số lượng thí sinh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Average Score</t>
+          <t>Điểm trung bình</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &lt; 1</t>
+          <t>Số lượng điểm &lt; 1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &lt; 5</t>
+          <t>Số lượng điểm &lt; 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &gt;= 9</t>
+          <t>Số lượng điểm &gt;= 9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Max Score</t>
+          <t>Điểm cao nhất</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Min Score</t>
+          <t>Điểm thấp nhất</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Kinh độ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Vĩ độ</t>
         </is>
       </c>
     </row>

--- a/processed/subject_statistics.xlsx
+++ b/processed/subject_statistics.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thống kê môn" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subject Statistics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Năm</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Khu vực</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tỉnh/Thành phố</t>
+          <t>Province</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Môn</t>
+          <t>Subject</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng thí sinh</t>
+          <t>Number of Students</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Điểm trung bình</t>
+          <t>Average Score</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng điểm &lt; 1</t>
+          <t>Number of Scores &lt; 1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng điểm &lt; 5</t>
+          <t>Number of Scores &lt; 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Số lượng điểm &gt;= 9</t>
+          <t>Number of Scores &gt;= 9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Điểm cao nhất</t>
+          <t>Max Score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Điểm thấp nhất</t>
+          <t>Min Score</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Kinh độ</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Vĩ độ</t>
+          <t>Latitude</t>
         </is>
       </c>
     </row>
@@ -993,22 +993,22 @@
         <v>56979</v>
       </c>
       <c r="F12" t="n">
-        <v>5.318090875585742</v>
+        <v>7.090787834114322</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17056</v>
+        <v>1393</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="J12" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K12" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L12" t="n">
         <v>105.8342</v>
@@ -1510,22 +1510,22 @@
         <v>29533</v>
       </c>
       <c r="F23" t="n">
-        <v>5.383884129617716</v>
+        <v>7.178512172823621</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7878</v>
+        <v>433</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="J23" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K23" t="n">
-        <v>0.875</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="L23" t="n">
         <v>106.6297</v>
@@ -2027,22 +2027,22 @@
         <v>12492</v>
       </c>
       <c r="F34" t="n">
-        <v>5.747263248479027</v>
+        <v>7.663017664638701</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1861</v>
+        <v>126</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="J34" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1875</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="L34" t="n">
         <v>106.686</v>
@@ -2544,22 +2544,22 @@
         <v>5975</v>
       </c>
       <c r="F45" t="n">
-        <v>5.013723849372385</v>
+        <v>6.684965132496512</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2758</v>
+        <v>339</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J45" t="n">
-        <v>7.0625</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="K45" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
         <v>108.2022</v>
@@ -3061,22 +3061,22 @@
         <v>4703</v>
       </c>
       <c r="F56" t="n">
-        <v>4.720271635126515</v>
+        <v>6.29369551350202</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2729</v>
+        <v>767</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J56" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K56" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
         <v>104.715</v>
@@ -3578,22 +3578,22 @@
         <v>3781</v>
       </c>
       <c r="F67" t="n">
-        <v>5.148902406770696</v>
+        <v>6.865203209027594</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1519</v>
+        <v>240</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J67" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K67" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
         <v>106.2522</v>
@@ -4095,22 +4095,22 @@
         <v>2596</v>
       </c>
       <c r="F78" t="n">
-        <v>5.260496918335901</v>
+        <v>7.013995891114535</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>916</v>
+        <v>109</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J78" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K78" t="n">
-        <v>2.5625</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="L78" t="n">
         <v>103.273</v>
@@ -4612,22 +4612,22 @@
         <v>5119</v>
       </c>
       <c r="F89" t="n">
-        <v>5.523844989255714</v>
+        <v>7.365126652340951</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1259</v>
+        <v>120</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J89" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K89" t="n">
-        <v>2.1875</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="L89" t="n">
         <v>103.9706</v>
@@ -5129,22 +5129,22 @@
         <v>6746</v>
       </c>
       <c r="F100" t="n">
-        <v>5.449803587310999</v>
+        <v>7.266404783081333</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1726</v>
+        <v>140</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="J100" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K100" t="n">
-        <v>2.125</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>105.2352</v>
@@ -5646,22 +5646,22 @@
         <v>6329</v>
       </c>
       <c r="F111" t="n">
-        <v>5.336871938694896</v>
+        <v>7.115829251593196</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1974</v>
+        <v>181</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J111" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K111" t="n">
-        <v>2.4375</v>
+        <v>3.25</v>
       </c>
       <c r="L111" t="n">
         <v>106.7504</v>
@@ -6163,22 +6163,22 @@
         <v>2222</v>
       </c>
       <c r="F122" t="n">
-        <v>5.421889063906391</v>
+        <v>7.229185418541855</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>627</v>
+        <v>56</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J122" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K122" t="n">
-        <v>2.5625</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="L122" t="n">
         <v>105.8391</v>
@@ -6680,22 +6680,22 @@
         <v>9154</v>
       </c>
       <c r="F133" t="n">
-        <v>5.167099082368363</v>
+        <v>6.889465443157818</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>3550</v>
+        <v>408</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J133" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K133" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>105.8526</v>
@@ -7197,22 +7197,22 @@
         <v>5767</v>
       </c>
       <c r="F144" t="n">
-        <v>5.20614054100919</v>
+        <v>6.941520721345587</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>2108</v>
+        <v>246</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J144" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K144" t="n">
-        <v>1.8125</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="L144" t="n">
         <v>104.7116</v>
@@ -7714,22 +7714,22 @@
         <v>8595</v>
       </c>
       <c r="F155" t="n">
-        <v>5.234591332169866</v>
+        <v>6.979455109559822</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>3173</v>
+        <v>376</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J155" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K155" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>103.7289</v>
@@ -8231,22 +8231,22 @@
         <v>10281</v>
       </c>
       <c r="F166" t="n">
-        <v>5.693232662192393</v>
+        <v>7.590976882923193</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1802</v>
+        <v>99</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="J166" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K166" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>105.2253</v>
@@ -8748,22 +8748,22 @@
         <v>6419</v>
       </c>
       <c r="F177" t="n">
-        <v>6.030583034740614</v>
+        <v>8.040777379654152</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="J177" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K177" t="n">
-        <v>3.4375</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>105.6038</v>
@@ -9265,22 +9265,22 @@
         <v>10113</v>
       </c>
       <c r="F188" t="n">
-        <v>5.253040640759418</v>
+        <v>7.004054187679225</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>3447</v>
+        <v>499</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J188" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K188" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L188" t="n">
         <v>107.0829</v>
@@ -9782,22 +9782,22 @@
         <v>12421</v>
       </c>
       <c r="F199" t="n">
-        <v>5.513701594074552</v>
+        <v>7.351602125432735</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>2826</v>
+        <v>233</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="J199" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K199" t="n">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>106.199</v>
@@ -10299,22 +10299,22 @@
         <v>8204</v>
       </c>
       <c r="F210" t="n">
-        <v>5.543355375426621</v>
+        <v>7.391140500568829</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>1704</v>
+        <v>119</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J210" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K210" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L210" t="n">
         <v>106.0783</v>
@@ -10816,22 +10816,22 @@
         <v>11043</v>
       </c>
       <c r="F221" t="n">
-        <v>5.477649868695101</v>
+        <v>7.303533158260135</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>2589</v>
+        <v>179</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="J221" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K221" t="n">
-        <v>0.8125</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>106.333</v>
@@ -11333,22 +11333,22 @@
         <v>7433</v>
       </c>
       <c r="F232" t="n">
-        <v>5.224690569083815</v>
+        <v>6.966254092111755</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>2560</v>
+        <v>171</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J232" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K232" t="n">
-        <v>1.5625</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>106.0511</v>
@@ -11850,22 +11850,22 @@
         <v>7146</v>
       </c>
       <c r="F243" t="n">
-        <v>5.304471032745592</v>
+        <v>7.07262804366079</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>2385</v>
+        <v>290</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="J243" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K243" t="n">
-        <v>2.1875</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="L243" t="n">
         <v>105.3385</v>
@@ -12367,22 +12367,22 @@
         <v>4960</v>
       </c>
       <c r="F254" t="n">
-        <v>5.643762600806451</v>
+        <v>7.525016801075269</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>907</v>
+        <v>39</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="J254" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K254" t="n">
-        <v>2.6875</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>106.016</v>
@@ -12884,22 +12884,22 @@
         <v>7638</v>
       </c>
       <c r="F265" t="n">
-        <v>5.86009099240639</v>
+        <v>7.813454656541853</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>841</v>
+        <v>28</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="J265" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K265" t="n">
-        <v>2.8125</v>
+        <v>3.75</v>
       </c>
       <c r="L265" t="n">
         <v>106.1621</v>
@@ -13401,22 +13401,22 @@
         <v>9178</v>
       </c>
       <c r="F276" t="n">
-        <v>5.58904445412944</v>
+        <v>7.452059272172587</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>1805</v>
+        <v>94</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="J276" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K276" t="n">
-        <v>1.625</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L276" t="n">
         <v>106.335</v>
@@ -13918,22 +13918,22 @@
         <v>5722</v>
       </c>
       <c r="F287" t="n">
-        <v>5.85035826634044</v>
+        <v>7.80047768845392</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>663</v>
+        <v>44</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="J287" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K287" t="n">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="L287" t="n">
         <v>105.974</v>
@@ -14435,22 +14435,22 @@
         <v>23149</v>
       </c>
       <c r="F298" t="n">
-        <v>5.287936303944015</v>
+        <v>7.050581738592021</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>7992</v>
+        <v>1127</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="J298" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K298" t="n">
-        <v>0.9375</v>
+        <v>1.25</v>
       </c>
       <c r="L298" t="n">
         <v>105.7769</v>
@@ -14952,22 +14952,22 @@
         <v>22740</v>
       </c>
       <c r="F309" t="n">
-        <v>5.305307277924363</v>
+        <v>7.073743037232484</v>
       </c>
       <c r="G309" t="n">
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>7226</v>
+        <v>800</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="J309" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K309" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>105.693</v>
@@ -15469,22 +15469,22 @@
         <v>10468</v>
       </c>
       <c r="F320" t="n">
-        <v>5.612581199847154</v>
+        <v>7.483441599796205</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>1956</v>
+        <v>123</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="J320" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K320" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>105.9063</v>
@@ -15986,22 +15986,22 @@
         <v>8438</v>
       </c>
       <c r="F331" t="n">
-        <v>5.209402405783361</v>
+        <v>6.945869874377815</v>
       </c>
       <c r="G331" t="n">
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>3025</v>
+        <v>359</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J331" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K331" t="n">
-        <v>2.125</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L331" t="n">
         <v>106.6291</v>
@@ -16503,22 +16503,22 @@
         <v>5456</v>
       </c>
       <c r="F342" t="n">
-        <v>4.992324963343108</v>
+        <v>6.656433284457478</v>
       </c>
       <c r="G342" t="n">
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>2539</v>
+        <v>471</v>
       </c>
       <c r="I342" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J342" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K342" t="n">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="L342" t="n">
         <v>107.2022</v>
@@ -17020,22 +17020,22 @@
         <v>8341</v>
       </c>
       <c r="F353" t="n">
-        <v>5.121837909123606</v>
+        <v>6.829117212164809</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>3330</v>
+        <v>411</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J353" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K353" t="n">
-        <v>2.0625</v>
+        <v>2.75</v>
       </c>
       <c r="L353" t="n">
         <v>107.5787</v>
@@ -17537,22 +17537,22 @@
         <v>10288</v>
       </c>
       <c r="F364" t="n">
-        <v>5.028856434681182</v>
+        <v>6.705141912908243</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>4605</v>
+        <v>642</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J364" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K364" t="n">
-        <v>1.625</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L364" t="n">
         <v>108.1094</v>
@@ -18054,22 +18054,22 @@
         <v>7298</v>
       </c>
       <c r="F375" t="n">
-        <v>4.91610715264456</v>
+        <v>6.554809536859413</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>3720</v>
+        <v>575</v>
       </c>
       <c r="I375" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J375" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K375" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>108.8036</v>
@@ -18571,22 +18571,22 @@
         <v>2804</v>
       </c>
       <c r="F386" t="n">
-        <v>5.181102888730385</v>
+        <v>6.908137184973847</v>
       </c>
       <c r="G386" t="n">
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>1100</v>
+        <v>148</v>
       </c>
       <c r="I386" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J386" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K386" t="n">
-        <v>2.125</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L386" t="n">
         <v>107.988</v>
@@ -19088,22 +19088,22 @@
         <v>11598</v>
       </c>
       <c r="F397" t="n">
-        <v>5.260939386101052</v>
+        <v>7.014585848134736</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>3689</v>
+        <v>342</v>
       </c>
       <c r="I397" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J397" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K397" t="n">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="L397" t="n">
         <v>109.1863</v>
@@ -19605,22 +19605,22 @@
         <v>8773</v>
       </c>
       <c r="F408" t="n">
-        <v>5.150319161062351</v>
+        <v>6.867092214749801</v>
       </c>
       <c r="G408" t="n">
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>3525</v>
+        <v>430</v>
       </c>
       <c r="I408" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="J408" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K408" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>108.036</v>
@@ -20122,22 +20122,22 @@
         <v>7061</v>
       </c>
       <c r="F419" t="n">
-        <v>4.834247981872256</v>
+        <v>6.445663975829674</v>
       </c>
       <c r="G419" t="n">
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>3817</v>
+        <v>720</v>
       </c>
       <c r="I419" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J419" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K419" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L419" t="n">
         <v>109.3088</v>
@@ -20639,22 +20639,22 @@
         <v>12289</v>
       </c>
       <c r="F430" t="n">
-        <v>4.831358328586541</v>
+        <v>6.441811104782054</v>
       </c>
       <c r="G430" t="n">
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>6742</v>
+        <v>1387</v>
       </c>
       <c r="I430" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J430" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K430" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>108.0838</v>
@@ -21156,22 +21156,22 @@
         <v>5911</v>
       </c>
       <c r="F441" t="n">
-        <v>5.099295804432414</v>
+        <v>6.799061072576552</v>
       </c>
       <c r="G441" t="n">
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>2496</v>
+        <v>361</v>
       </c>
       <c r="I441" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J441" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K441" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L441" t="n">
         <v>109.1927</v>
@@ -21673,22 +21673,22 @@
         <v>8480</v>
       </c>
       <c r="F452" t="n">
-        <v>5.294479658018868</v>
+        <v>7.059306210691823</v>
       </c>
       <c r="G452" t="n">
         <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>2731</v>
+        <v>223</v>
       </c>
       <c r="I452" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J452" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K452" t="n">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="L452" t="n">
         <v>108.4428</v>
@@ -22190,22 +22190,22 @@
         <v>5141</v>
       </c>
       <c r="F463" t="n">
-        <v>5.149217078389419</v>
+        <v>6.86562277118589</v>
       </c>
       <c r="G463" t="n">
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>2054</v>
+        <v>238</v>
       </c>
       <c r="I463" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J463" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K463" t="n">
-        <v>2.4375</v>
+        <v>3.25</v>
       </c>
       <c r="L463" t="n">
         <v>106.9228</v>
@@ -22707,22 +22707,22 @@
         <v>4974</v>
       </c>
       <c r="F474" t="n">
-        <v>5.826409831121834</v>
+        <v>7.768546441495778</v>
       </c>
       <c r="G474" t="n">
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="I474" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="J474" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K474" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>106.652</v>
@@ -23224,22 +23224,22 @@
         <v>3839</v>
       </c>
       <c r="F485" t="n">
-        <v>4.91858231310237</v>
+        <v>6.55810975080316</v>
       </c>
       <c r="G485" t="n">
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>1944</v>
+        <v>313</v>
       </c>
       <c r="I485" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J485" t="n">
-        <v>7.0625</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="K485" t="n">
-        <v>1.5625</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>108.98</v>
@@ -23741,22 +23741,22 @@
         <v>4956</v>
       </c>
       <c r="F496" t="n">
-        <v>5.156603107344632</v>
+        <v>6.875470809792843</v>
       </c>
       <c r="G496" t="n">
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>1952</v>
+        <v>158</v>
       </c>
       <c r="I496" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J496" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K496" t="n">
-        <v>2.5625</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="L496" t="n">
         <v>106.1257</v>
@@ -24258,22 +24258,22 @@
         <v>8073</v>
       </c>
       <c r="F507" t="n">
-        <v>5.146576551467856</v>
+        <v>6.862102068623808</v>
       </c>
       <c r="G507" t="n">
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>3227</v>
+        <v>345</v>
       </c>
       <c r="I507" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J507" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K507" t="n">
-        <v>2.375</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="L507" t="n">
         <v>108.0969</v>
@@ -24775,22 +24775,22 @@
         <v>14623</v>
       </c>
       <c r="F518" t="n">
-        <v>5.098231382069343</v>
+        <v>6.797641842759124</v>
       </c>
       <c r="G518" t="n">
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>6118</v>
+        <v>649</v>
       </c>
       <c r="I518" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J518" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K518" t="n">
-        <v>2.1875</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="L518" t="n">
         <v>107.1689</v>
@@ -25292,22 +25292,22 @@
         <v>6221</v>
       </c>
       <c r="F529" t="n">
-        <v>5.465730991801961</v>
+        <v>7.287641322402616</v>
       </c>
       <c r="G529" t="n">
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>1491</v>
+        <v>102</v>
       </c>
       <c r="I529" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J529" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K529" t="n">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>106.1237</v>
@@ -25809,22 +25809,22 @@
         <v>7741</v>
       </c>
       <c r="F540" t="n">
-        <v>5.385536429401886</v>
+        <v>7.180715239202515</v>
       </c>
       <c r="G540" t="n">
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>2149</v>
+        <v>125</v>
       </c>
       <c r="I540" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J540" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K540" t="n">
-        <v>2.75</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="L540" t="n">
         <v>105.7415</v>
@@ -26326,22 +26326,22 @@
         <v>10619</v>
       </c>
       <c r="F551" t="n">
-        <v>5.544466286844336</v>
+        <v>7.392621715792448</v>
       </c>
       <c r="G551" t="n">
         <v>0</v>
       </c>
       <c r="H551" t="n">
-        <v>2299</v>
+        <v>127</v>
       </c>
       <c r="I551" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="J551" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K551" t="n">
-        <v>2.4375</v>
+        <v>3.25</v>
       </c>
       <c r="L551" t="n">
         <v>105.4306</v>
@@ -26843,22 +26843,22 @@
         <v>4636</v>
       </c>
       <c r="F562" t="n">
-        <v>5.264384706643658</v>
+        <v>7.01917960885821</v>
       </c>
       <c r="G562" t="n">
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>1591</v>
+        <v>151</v>
       </c>
       <c r="I562" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J562" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K562" t="n">
-        <v>2.125</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L562" t="n">
         <v>107.0843</v>
@@ -27360,22 +27360,22 @@
         <v>6790</v>
       </c>
       <c r="F573" t="n">
-        <v>5.389258100147275</v>
+        <v>7.185677466863034</v>
       </c>
       <c r="G573" t="n">
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>1896</v>
+        <v>89</v>
       </c>
       <c r="I573" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J573" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K573" t="n">
-        <v>2.75</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="L573" t="n">
         <v>106.3637</v>
@@ -27877,22 +27877,22 @@
         <v>8617</v>
       </c>
       <c r="F584" t="n">
-        <v>5.262214227689451</v>
+        <v>7.016285636919268</v>
       </c>
       <c r="G584" t="n">
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>2947</v>
+        <v>266</v>
       </c>
       <c r="I584" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="J584" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K584" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L584" t="n">
         <v>105.0848</v>
@@ -28394,22 +28394,22 @@
         <v>6320</v>
       </c>
       <c r="F595" t="n">
-        <v>5.354044699367089</v>
+        <v>7.138726265822785</v>
       </c>
       <c r="G595" t="n">
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>1928</v>
+        <v>133</v>
       </c>
       <c r="I595" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J595" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K595" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L595" t="n">
         <v>105.7209</v>
@@ -28911,22 +28911,22 @@
         <v>6535</v>
       </c>
       <c r="F606" t="n">
-        <v>5.388351185921959</v>
+        <v>7.184468247895945</v>
       </c>
       <c r="G606" t="n">
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>1775</v>
+        <v>81</v>
       </c>
       <c r="I606" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J606" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K606" t="n">
-        <v>2.6875</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="L606" t="n">
         <v>106.3771</v>
@@ -29428,22 +29428,22 @@
         <v>6185</v>
       </c>
       <c r="F617" t="n">
-        <v>5.52699070331447</v>
+        <v>7.369320937752628</v>
       </c>
       <c r="G617" t="n">
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>1276</v>
+        <v>47</v>
       </c>
       <c r="I617" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J617" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K617" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L617" t="n">
         <v>106.0055</v>
@@ -29945,22 +29945,22 @@
         <v>6484</v>
       </c>
       <c r="F628" t="n">
-        <v>5.025823180135719</v>
+        <v>6.701097573514291</v>
       </c>
       <c r="G628" t="n">
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>2917</v>
+        <v>389</v>
       </c>
       <c r="I628" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J628" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K628" t="n">
-        <v>2.1875</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="L628" t="n">
         <v>106.3449</v>
@@ -30462,22 +30462,22 @@
         <v>6401</v>
       </c>
       <c r="F639" t="n">
-        <v>5.100736213091705</v>
+        <v>6.800981617455605</v>
       </c>
       <c r="G639" t="n">
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>2686</v>
+        <v>341</v>
       </c>
       <c r="I639" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J639" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K639" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L639" t="n">
         <v>105.9803</v>
@@ -30979,22 +30979,22 @@
         <v>3512</v>
       </c>
       <c r="F650" t="n">
-        <v>5.484392796127563</v>
+        <v>7.312523728170084</v>
       </c>
       <c r="G650" t="n">
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>849</v>
+        <v>43</v>
       </c>
       <c r="I650" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J650" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K650" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L650" t="n">
         <v>105.7245</v>
@@ -31496,22 +31496,22 @@
         <v>5661</v>
       </c>
       <c r="F661" t="n">
-        <v>5.266218424306659</v>
+        <v>7.021624565742214</v>
       </c>
       <c r="G661" t="n">
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>1962</v>
+        <v>195</v>
       </c>
       <c r="I661" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J661" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K661" t="n">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="L661" t="n">
         <v>105.15</v>
@@ -32013,22 +32013,22 @@
         <v>4792</v>
       </c>
       <c r="F672" t="n">
-        <v>5.115674561769616</v>
+        <v>6.820899415692821</v>
       </c>
       <c r="G672" t="n">
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>1994</v>
+        <v>366</v>
       </c>
       <c r="I672" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J672" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K672" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L672" t="n">
         <v>103.0235</v>
@@ -32530,22 +32530,22 @@
         <v>4081</v>
       </c>
       <c r="F683" t="n">
-        <v>5.069315118843421</v>
+        <v>6.759086825124561</v>
       </c>
       <c r="G683" t="n">
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>1826</v>
+        <v>252</v>
       </c>
       <c r="I683" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J683" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K683" t="n">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="L683" t="n">
         <v>107.7148</v>
@@ -33047,22 +33047,22 @@
         <v>4246</v>
       </c>
       <c r="F694" t="n">
-        <v>5.18686705134244</v>
+        <v>6.915822735123253</v>
       </c>
       <c r="G694" t="n">
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>1641</v>
+        <v>159</v>
       </c>
       <c r="I694" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J694" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K694" t="n">
-        <v>2.1875</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="L694" t="n">
         <v>105.5552</v>
@@ -33564,22 +33564,22 @@
         <v>60427</v>
       </c>
       <c r="F705" t="n">
-        <v>5.080187664454631</v>
+        <v>6.773583552606175</v>
       </c>
       <c r="G705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>26507</v>
+        <v>2177</v>
       </c>
       <c r="I705" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J705" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K705" t="n">
-        <v>0.9375</v>
+        <v>1.25</v>
       </c>
       <c r="L705" t="n">
         <v>105.8342</v>
@@ -34081,22 +34081,22 @@
         <v>28985</v>
       </c>
       <c r="F716" t="n">
-        <v>5.281000948766604</v>
+        <v>7.041334598355472</v>
       </c>
       <c r="G716" t="n">
         <v>0</v>
       </c>
       <c r="H716" t="n">
-        <v>9091</v>
+        <v>438</v>
       </c>
       <c r="I716" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="J716" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K716" t="n">
-        <v>1.0625</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="L716" t="n">
         <v>106.6297</v>
@@ -34598,22 +34598,22 @@
         <v>12566</v>
       </c>
       <c r="F727" t="n">
-        <v>5.488311714149292</v>
+        <v>7.317748952199056</v>
       </c>
       <c r="G727" t="n">
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>2980</v>
+        <v>149</v>
       </c>
       <c r="I727" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="J727" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K727" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L727" t="n">
         <v>106.686</v>
@@ -35115,22 +35115,22 @@
         <v>6163</v>
       </c>
       <c r="F738" t="n">
-        <v>4.929234950511114</v>
+        <v>6.572313267348154</v>
       </c>
       <c r="G738" t="n">
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>3193</v>
+        <v>372</v>
       </c>
       <c r="I738" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J738" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K738" t="n">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="L738" t="n">
         <v>108.2022</v>
@@ -35632,22 +35632,22 @@
         <v>5044</v>
       </c>
       <c r="F749" t="n">
-        <v>4.502205590800951</v>
+        <v>6.002940787734603</v>
       </c>
       <c r="G749" t="n">
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>3400</v>
+        <v>1078</v>
       </c>
       <c r="I749" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J749" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K749" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L749" t="n">
         <v>104.715</v>
@@ -36149,22 +36149,22 @@
         <v>3612</v>
       </c>
       <c r="F760" t="n">
-        <v>4.901128183831672</v>
+        <v>6.534837578442231</v>
       </c>
       <c r="G760" t="n">
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>1866</v>
+        <v>375</v>
       </c>
       <c r="I760" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J760" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K760" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L760" t="n">
         <v>106.2522</v>
@@ -36666,22 +36666,22 @@
         <v>2746</v>
       </c>
       <c r="F771" t="n">
-        <v>5.018777312454479</v>
+        <v>6.69170308327264</v>
       </c>
       <c r="G771" t="n">
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>1301</v>
+        <v>184</v>
       </c>
       <c r="I771" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J771" t="n">
-        <v>6.9375</v>
+        <v>9.25</v>
       </c>
       <c r="K771" t="n">
-        <v>1.8125</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="L771" t="n">
         <v>103.273</v>
@@ -37183,22 +37183,22 @@
         <v>5427</v>
       </c>
       <c r="F782" t="n">
-        <v>5.287324949327437</v>
+        <v>7.04976659910325</v>
       </c>
       <c r="G782" t="n">
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>1868</v>
+        <v>190</v>
       </c>
       <c r="I782" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J782" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K782" t="n">
-        <v>2.125</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L782" t="n">
         <v>103.9706</v>
@@ -37700,22 +37700,22 @@
         <v>6607</v>
       </c>
       <c r="F793" t="n">
-        <v>5.279447934009384</v>
+        <v>7.039263912012512</v>
       </c>
       <c r="G793" t="n">
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>2172</v>
+        <v>181</v>
       </c>
       <c r="I793" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="J793" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K793" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L793" t="n">
         <v>105.2352</v>
@@ -38217,22 +38217,22 @@
         <v>6232</v>
       </c>
       <c r="F804" t="n">
-        <v>5.125621790757381</v>
+        <v>6.834162387676509</v>
       </c>
       <c r="G804" t="n">
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>2618</v>
+        <v>246</v>
       </c>
       <c r="I804" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J804" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K804" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L804" t="n">
         <v>106.7504</v>
@@ -38734,22 +38734,22 @@
         <v>2110</v>
       </c>
       <c r="F815" t="n">
-        <v>5.238595971563981</v>
+        <v>6.984794628751975</v>
       </c>
       <c r="G815" t="n">
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>765</v>
+        <v>87</v>
       </c>
       <c r="I815" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J815" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K815" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L815" t="n">
         <v>105.8391</v>
@@ -39251,22 +39251,22 @@
         <v>9631</v>
       </c>
       <c r="F826" t="n">
-        <v>5.050345239331326</v>
+        <v>6.733793652441769</v>
       </c>
       <c r="G826" t="n">
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>4344</v>
+        <v>543</v>
       </c>
       <c r="I826" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J826" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K826" t="n">
-        <v>1.5625</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="L826" t="n">
         <v>105.8526</v>
@@ -39768,22 +39768,22 @@
         <v>5952</v>
       </c>
       <c r="F837" t="n">
-        <v>5.002541162634409</v>
+        <v>6.670054883512544</v>
       </c>
       <c r="G837" t="n">
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>2842</v>
+        <v>397</v>
       </c>
       <c r="I837" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="J837" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K837" t="n">
-        <v>1.625</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L837" t="n">
         <v>104.7116</v>
@@ -40285,22 +40285,22 @@
         <v>9139</v>
       </c>
       <c r="F848" t="n">
-        <v>5.035500328263486</v>
+        <v>6.714000437684649</v>
       </c>
       <c r="G848" t="n">
         <v>0</v>
       </c>
       <c r="H848" t="n">
-        <v>4210</v>
+        <v>627</v>
       </c>
       <c r="I848" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="J848" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K848" t="n">
-        <v>1.875</v>
+        <v>2.5</v>
       </c>
       <c r="L848" t="n">
         <v>103.7289</v>
@@ -40802,22 +40802,22 @@
         <v>9737</v>
       </c>
       <c r="F859" t="n">
-        <v>5.583309797678957</v>
+        <v>7.444413063571942</v>
       </c>
       <c r="G859" t="n">
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>1947</v>
+        <v>89</v>
       </c>
       <c r="I859" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="J859" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K859" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L859" t="n">
         <v>105.2253</v>
@@ -41319,22 +41319,22 @@
         <v>6931</v>
       </c>
       <c r="F870" t="n">
-        <v>5.917814889626317</v>
+        <v>7.890419852835088</v>
       </c>
       <c r="G870" t="n">
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>577</v>
+        <v>9</v>
       </c>
       <c r="I870" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="J870" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K870" t="n">
-        <v>3.0625</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="L870" t="n">
         <v>105.6038</v>
@@ -41836,22 +41836,22 @@
         <v>10083</v>
       </c>
       <c r="F881" t="n">
-        <v>5.084033769711396</v>
+        <v>6.778711692948527</v>
       </c>
       <c r="G881" t="n">
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>4332</v>
+        <v>482</v>
       </c>
       <c r="I881" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J881" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K881" t="n">
-        <v>1.4375</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="L881" t="n">
         <v>107.0829</v>
@@ -42353,22 +42353,22 @@
         <v>12364</v>
       </c>
       <c r="F892" t="n">
-        <v>5.288155127790359</v>
+        <v>7.050873503720479</v>
       </c>
       <c r="G892" t="n">
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>4129</v>
+        <v>301</v>
       </c>
       <c r="I892" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J892" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K892" t="n">
-        <v>2.0625</v>
+        <v>2.75</v>
       </c>
       <c r="L892" t="n">
         <v>106.199</v>
@@ -42870,22 +42870,22 @@
         <v>8428</v>
       </c>
       <c r="F903" t="n">
-        <v>5.461808851447556</v>
+        <v>7.282411801930075</v>
       </c>
       <c r="G903" t="n">
         <v>0</v>
       </c>
       <c r="H903" t="n">
-        <v>2092</v>
+        <v>167</v>
       </c>
       <c r="I903" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="J903" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K903" t="n">
-        <v>1.4375</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="L903" t="n">
         <v>106.0783</v>
@@ -43387,19 +43387,19 @@
         <v>10712</v>
       </c>
       <c r="F914" t="n">
-        <v>5.346999859970127</v>
+        <v>7.129333146626837</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
       </c>
       <c r="H914" t="n">
-        <v>3229</v>
+        <v>189</v>
       </c>
       <c r="I914" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J914" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K914" t="n">
         <v>0</v>
@@ -43904,22 +43904,22 @@
         <v>7985</v>
       </c>
       <c r="F925" t="n">
-        <v>5.039597683155917</v>
+        <v>6.719463577541223</v>
       </c>
       <c r="G925" t="n">
         <v>0</v>
       </c>
       <c r="H925" t="n">
-        <v>3726</v>
+        <v>293</v>
       </c>
       <c r="I925" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J925" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K925" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L925" t="n">
         <v>106.0511</v>
@@ -44421,22 +44421,22 @@
         <v>7087</v>
       </c>
       <c r="F936" t="n">
-        <v>5.179121983914209</v>
+        <v>6.905495978552278</v>
       </c>
       <c r="G936" t="n">
         <v>0</v>
       </c>
       <c r="H936" t="n">
-        <v>2826</v>
+        <v>334</v>
       </c>
       <c r="I936" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J936" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K936" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L936" t="n">
         <v>105.3385</v>
@@ -44938,22 +44938,22 @@
         <v>4977</v>
       </c>
       <c r="F947" t="n">
-        <v>5.524136025718304</v>
+        <v>7.36551470095774</v>
       </c>
       <c r="G947" t="n">
         <v>0</v>
       </c>
       <c r="H947" t="n">
-        <v>1153</v>
+        <v>54</v>
       </c>
       <c r="I947" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J947" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K947" t="n">
-        <v>3.125</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="L947" t="n">
         <v>106.016</v>
@@ -45455,22 +45455,22 @@
         <v>8066</v>
       </c>
       <c r="F958" t="n">
-        <v>5.7128455864121</v>
+        <v>7.617127448549467</v>
       </c>
       <c r="G958" t="n">
         <v>0</v>
       </c>
       <c r="H958" t="n">
-        <v>1281</v>
+        <v>47</v>
       </c>
       <c r="I958" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="J958" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K958" t="n">
-        <v>3.0625</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="L958" t="n">
         <v>106.1621</v>
@@ -45972,22 +45972,22 @@
         <v>9371</v>
       </c>
       <c r="F969" t="n">
-        <v>5.434552075552236</v>
+        <v>7.246069434069648</v>
       </c>
       <c r="G969" t="n">
         <v>0</v>
       </c>
       <c r="H969" t="n">
-        <v>2461</v>
+        <v>110</v>
       </c>
       <c r="I969" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="J969" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K969" t="n">
-        <v>2.375</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="L969" t="n">
         <v>106.335</v>
@@ -46489,22 +46489,22 @@
         <v>6139</v>
       </c>
       <c r="F980" t="n">
-        <v>5.690096106857794</v>
+        <v>7.586794809143727</v>
       </c>
       <c r="G980" t="n">
         <v>0</v>
       </c>
       <c r="H980" t="n">
-        <v>1027</v>
+        <v>47</v>
       </c>
       <c r="I980" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="J980" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K980" t="n">
-        <v>2.125</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L980" t="n">
         <v>105.974</v>
@@ -47006,22 +47006,22 @@
         <v>22746</v>
       </c>
       <c r="F991" t="n">
-        <v>5.22155269058296</v>
+        <v>6.962070254110613</v>
       </c>
       <c r="G991" t="n">
         <v>0</v>
       </c>
       <c r="H991" t="n">
-        <v>8645</v>
+        <v>999</v>
       </c>
       <c r="I991" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="J991" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K991" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L991" t="n">
         <v>105.7769</v>
@@ -47523,22 +47523,22 @@
         <v>23716</v>
       </c>
       <c r="F1002" t="n">
-        <v>5.178555616461461</v>
+        <v>6.904740821948613</v>
       </c>
       <c r="G1002" t="n">
         <v>0</v>
       </c>
       <c r="H1002" t="n">
-        <v>9238</v>
+        <v>944</v>
       </c>
       <c r="I1002" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="J1002" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K1002" t="n">
-        <v>1.3125</v>
+        <v>1.75</v>
       </c>
       <c r="L1002" t="n">
         <v>105.693</v>
@@ -48040,22 +48040,22 @@
         <v>9993</v>
       </c>
       <c r="F1013" t="n">
-        <v>5.476077003902732</v>
+        <v>7.301436005203643</v>
       </c>
       <c r="G1013" t="n">
         <v>0</v>
       </c>
       <c r="H1013" t="n">
-        <v>2455</v>
+        <v>114</v>
       </c>
       <c r="I1013" t="n">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="J1013" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K1013" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L1013" t="n">
         <v>105.9063</v>
@@ -48557,22 +48557,22 @@
         <v>8334</v>
       </c>
       <c r="F1024" t="n">
-        <v>5.063002459803216</v>
+        <v>6.750669946404288</v>
       </c>
       <c r="G1024" t="n">
         <v>0</v>
       </c>
       <c r="H1024" t="n">
-        <v>3659</v>
+        <v>379</v>
       </c>
       <c r="I1024" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J1024" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1024" t="n">
-        <v>1.8125</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="L1024" t="n">
         <v>106.6291</v>
@@ -49074,22 +49074,22 @@
         <v>5376</v>
       </c>
       <c r="F1035" t="n">
-        <v>4.88134765625</v>
+        <v>6.508463541666667</v>
       </c>
       <c r="G1035" t="n">
         <v>0</v>
       </c>
       <c r="H1035" t="n">
-        <v>2882</v>
+        <v>480</v>
       </c>
       <c r="I1035" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J1035" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K1035" t="n">
-        <v>1.1875</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="L1035" t="n">
         <v>107.2022</v>
@@ -49591,22 +49591,22 @@
         <v>8348</v>
       </c>
       <c r="F1046" t="n">
-        <v>5.011986403929085</v>
+        <v>6.682648538572113</v>
       </c>
       <c r="G1046" t="n">
         <v>0</v>
       </c>
       <c r="H1046" t="n">
-        <v>3880</v>
+        <v>409</v>
       </c>
       <c r="I1046" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J1046" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1046" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L1046" t="n">
         <v>107.5787</v>
@@ -50108,22 +50108,22 @@
         <v>10093</v>
       </c>
       <c r="F1057" t="n">
-        <v>4.853605221440603</v>
+        <v>6.471473628587471</v>
       </c>
       <c r="G1057" t="n">
         <v>0</v>
       </c>
       <c r="H1057" t="n">
-        <v>5600</v>
+        <v>810</v>
       </c>
       <c r="I1057" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J1057" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1057" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L1057" t="n">
         <v>108.1094</v>
@@ -50625,22 +50625,22 @@
         <v>7427</v>
       </c>
       <c r="F1068" t="n">
-        <v>4.719225461155244</v>
+        <v>6.29230061487366</v>
       </c>
       <c r="G1068" t="n">
         <v>0</v>
       </c>
       <c r="H1068" t="n">
-        <v>4625</v>
+        <v>773</v>
       </c>
       <c r="I1068" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1068" t="n">
-        <v>7.0625</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="K1068" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L1068" t="n">
         <v>108.8036</v>
@@ -51142,22 +51142,22 @@
         <v>3237</v>
       </c>
       <c r="F1079" t="n">
-        <v>5.002220420142107</v>
+        <v>6.669627226856143</v>
       </c>
       <c r="G1079" t="n">
         <v>0</v>
       </c>
       <c r="H1079" t="n">
-        <v>1545</v>
+        <v>216</v>
       </c>
       <c r="I1079" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J1079" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1079" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L1079" t="n">
         <v>107.988</v>
@@ -51659,22 +51659,22 @@
         <v>11349</v>
       </c>
       <c r="F1090" t="n">
-        <v>5.05604017975152</v>
+        <v>6.74138690633536</v>
       </c>
       <c r="G1090" t="n">
         <v>0</v>
       </c>
       <c r="H1090" t="n">
-        <v>4968</v>
+        <v>491</v>
       </c>
       <c r="I1090" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J1090" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K1090" t="n">
-        <v>1.8125</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="L1090" t="n">
         <v>109.1863</v>
@@ -52176,22 +52176,22 @@
         <v>9603</v>
       </c>
       <c r="F1101" t="n">
-        <v>4.862347703842549</v>
+        <v>6.483130271790065</v>
       </c>
       <c r="G1101" t="n">
         <v>0</v>
       </c>
       <c r="H1101" t="n">
-        <v>5266</v>
+        <v>813</v>
       </c>
       <c r="I1101" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J1101" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K1101" t="n">
-        <v>1.8125</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="L1101" t="n">
         <v>108.036</v>
@@ -52693,22 +52693,22 @@
         <v>6854</v>
       </c>
       <c r="F1112" t="n">
-        <v>4.85191129267581</v>
+        <v>6.46921505690108</v>
       </c>
       <c r="G1112" t="n">
         <v>1</v>
       </c>
       <c r="H1112" t="n">
-        <v>3810</v>
+        <v>534</v>
       </c>
       <c r="I1112" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J1112" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K1112" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L1112" t="n">
         <v>109.3088</v>
@@ -53210,22 +53210,22 @@
         <v>12757</v>
       </c>
       <c r="F1123" t="n">
-        <v>4.731818805361762</v>
+        <v>6.309091740482351</v>
       </c>
       <c r="G1123" t="n">
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>7792</v>
+        <v>1518</v>
       </c>
       <c r="I1123" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J1123" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1123" t="n">
-        <v>1.8125</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="L1123" t="n">
         <v>108.0838</v>
@@ -53727,22 +53727,22 @@
         <v>6081</v>
       </c>
       <c r="F1134" t="n">
-        <v>4.932165762210163</v>
+        <v>6.576221016280217</v>
       </c>
       <c r="G1134" t="n">
         <v>0</v>
       </c>
       <c r="H1134" t="n">
-        <v>3076</v>
+        <v>438</v>
       </c>
       <c r="I1134" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J1134" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K1134" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L1134" t="n">
         <v>109.1927</v>
@@ -54244,22 +54244,22 @@
         <v>8709</v>
       </c>
       <c r="F1145" t="n">
-        <v>5.141089677345275</v>
+        <v>6.854786236460367</v>
       </c>
       <c r="G1145" t="n">
         <v>0</v>
       </c>
       <c r="H1145" t="n">
-        <v>3480</v>
+        <v>236</v>
       </c>
       <c r="I1145" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J1145" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1145" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L1145" t="n">
         <v>108.4428</v>
@@ -54761,22 +54761,22 @@
         <v>5641</v>
       </c>
       <c r="F1156" t="n">
-        <v>5.170393104059564</v>
+        <v>6.893857472079419</v>
       </c>
       <c r="G1156" t="n">
         <v>0</v>
       </c>
       <c r="H1156" t="n">
-        <v>2234</v>
+        <v>179</v>
       </c>
       <c r="I1156" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J1156" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1156" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L1156" t="n">
         <v>106.9228</v>
@@ -55278,22 +55278,22 @@
         <v>5152</v>
       </c>
       <c r="F1167" t="n">
-        <v>5.695579386645963</v>
+        <v>7.594105848861282</v>
       </c>
       <c r="G1167" t="n">
         <v>0</v>
       </c>
       <c r="H1167" t="n">
-        <v>626</v>
+        <v>6</v>
       </c>
       <c r="I1167" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J1167" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1167" t="n">
         <v>106.652</v>
@@ -55795,22 +55795,22 @@
         <v>3780</v>
       </c>
       <c r="F1178" t="n">
-        <v>4.850925925925926</v>
+        <v>6.467901234567901</v>
       </c>
       <c r="G1178" t="n">
         <v>0</v>
       </c>
       <c r="H1178" t="n">
-        <v>2090</v>
+        <v>306</v>
       </c>
       <c r="I1178" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J1178" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K1178" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L1178" t="n">
         <v>108.98</v>
@@ -56312,22 +56312,22 @@
         <v>5389</v>
       </c>
       <c r="F1189" t="n">
-        <v>5.092155316385229</v>
+        <v>6.789540421846973</v>
       </c>
       <c r="G1189" t="n">
         <v>0</v>
       </c>
       <c r="H1189" t="n">
-        <v>2308</v>
+        <v>199</v>
       </c>
       <c r="I1189" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J1189" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K1189" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L1189" t="n">
         <v>106.1257</v>
@@ -56829,22 +56829,22 @@
         <v>8288</v>
       </c>
       <c r="F1200" t="n">
-        <v>5.065629524613899</v>
+        <v>6.7541726994852</v>
       </c>
       <c r="G1200" t="n">
         <v>0</v>
       </c>
       <c r="H1200" t="n">
-        <v>3691</v>
+        <v>330</v>
       </c>
       <c r="I1200" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J1200" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K1200" t="n">
-        <v>1.3125</v>
+        <v>1.75</v>
       </c>
       <c r="L1200" t="n">
         <v>108.0969</v>
@@ -57346,22 +57346,22 @@
         <v>15038</v>
       </c>
       <c r="F1211" t="n">
-        <v>4.980935795983508</v>
+        <v>6.641247727978012</v>
       </c>
       <c r="G1211" t="n">
         <v>0</v>
       </c>
       <c r="H1211" t="n">
-        <v>7317</v>
+        <v>719</v>
       </c>
       <c r="I1211" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J1211" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1211" t="n">
-        <v>1.9375</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="L1211" t="n">
         <v>107.1689</v>
@@ -57863,22 +57863,22 @@
         <v>6543</v>
       </c>
       <c r="F1222" t="n">
-        <v>5.225651459575118</v>
+        <v>6.96753527943349</v>
       </c>
       <c r="G1222" t="n">
         <v>0</v>
       </c>
       <c r="H1222" t="n">
-        <v>2328</v>
+        <v>138</v>
       </c>
       <c r="I1222" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J1222" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K1222" t="n">
-        <v>2.8125</v>
+        <v>3.75</v>
       </c>
       <c r="L1222" t="n">
         <v>106.1237</v>
@@ -58380,22 +58380,22 @@
         <v>7985</v>
       </c>
       <c r="F1233" t="n">
-        <v>5.171994364433313</v>
+        <v>6.895992485911083</v>
       </c>
       <c r="G1233" t="n">
         <v>0</v>
       </c>
       <c r="H1233" t="n">
-        <v>3134</v>
+        <v>190</v>
       </c>
       <c r="I1233" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J1233" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1233" t="n">
-        <v>2.0625</v>
+        <v>2.75</v>
       </c>
       <c r="L1233" t="n">
         <v>105.7415</v>
@@ -58897,22 +58897,22 @@
         <v>11081</v>
       </c>
       <c r="F1244" t="n">
-        <v>5.449079505459796</v>
+        <v>7.265439340613061</v>
       </c>
       <c r="G1244" t="n">
         <v>0</v>
       </c>
       <c r="H1244" t="n">
-        <v>2835</v>
+        <v>151</v>
       </c>
       <c r="I1244" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J1244" t="n">
-        <v>7.375</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="K1244" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L1244" t="n">
         <v>105.4306</v>
@@ -59414,22 +59414,22 @@
         <v>4835</v>
       </c>
       <c r="F1255" t="n">
-        <v>5.222892967942089</v>
+        <v>6.963857290589452</v>
       </c>
       <c r="G1255" t="n">
         <v>0</v>
       </c>
       <c r="H1255" t="n">
-        <v>1778</v>
+        <v>109</v>
       </c>
       <c r="I1255" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J1255" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1255" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L1255" t="n">
         <v>107.0843</v>
@@ -59931,22 +59931,22 @@
         <v>7570</v>
       </c>
       <c r="F1266" t="n">
-        <v>5.25056142668428</v>
+        <v>7.000748568912374</v>
       </c>
       <c r="G1266" t="n">
         <v>0</v>
       </c>
       <c r="H1266" t="n">
-        <v>2630</v>
+        <v>116</v>
       </c>
       <c r="I1266" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J1266" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K1266" t="n">
-        <v>1.1875</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="L1266" t="n">
         <v>106.3637</v>
@@ -60448,22 +60448,22 @@
         <v>8578</v>
       </c>
       <c r="F1277" t="n">
-        <v>5.158632548379575</v>
+        <v>6.878176731172767</v>
       </c>
       <c r="G1277" t="n">
         <v>0</v>
       </c>
       <c r="H1277" t="n">
-        <v>3340</v>
+        <v>299</v>
       </c>
       <c r="I1277" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J1277" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1277" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L1277" t="n">
         <v>105.0848</v>
@@ -60965,22 +60965,22 @@
         <v>6378</v>
       </c>
       <c r="F1288" t="n">
-        <v>5.175956412668548</v>
+        <v>6.901275216891398</v>
       </c>
       <c r="G1288" t="n">
         <v>0</v>
       </c>
       <c r="H1288" t="n">
-        <v>2517</v>
+        <v>185</v>
       </c>
       <c r="I1288" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J1288" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1288" t="n">
-        <v>1.6875</v>
+        <v>2.25</v>
       </c>
       <c r="L1288" t="n">
         <v>105.7209</v>
@@ -61482,22 +61482,22 @@
         <v>6621</v>
       </c>
       <c r="F1299" t="n">
-        <v>5.206020616221115</v>
+        <v>6.941360821628153</v>
       </c>
       <c r="G1299" t="n">
         <v>0</v>
       </c>
       <c r="H1299" t="n">
-        <v>2403</v>
+        <v>112</v>
       </c>
       <c r="I1299" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J1299" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K1299" t="n">
-        <v>2.9375</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="L1299" t="n">
         <v>106.3771</v>
@@ -61999,22 +61999,22 @@
         <v>6042</v>
       </c>
       <c r="F1310" t="n">
-        <v>5.424300728235684</v>
+        <v>7.232400970980912</v>
       </c>
       <c r="G1310" t="n">
         <v>0</v>
       </c>
       <c r="H1310" t="n">
-        <v>1502</v>
+        <v>37</v>
       </c>
       <c r="I1310" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J1310" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1310" t="n">
         <v>106.0055</v>
@@ -62516,22 +62516,22 @@
         <v>6258</v>
       </c>
       <c r="F1321" t="n">
-        <v>4.865941594758709</v>
+        <v>6.487922126344944</v>
       </c>
       <c r="G1321" t="n">
         <v>0</v>
       </c>
       <c r="H1321" t="n">
-        <v>3437</v>
+        <v>448</v>
       </c>
       <c r="I1321" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J1321" t="n">
-        <v>7.125</v>
+        <v>9.5</v>
       </c>
       <c r="K1321" t="n">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L1321" t="n">
         <v>106.3449</v>
@@ -63033,22 +63033,22 @@
         <v>6472</v>
       </c>
       <c r="F1332" t="n">
-        <v>4.931464385043263</v>
+        <v>6.575285846724351</v>
       </c>
       <c r="G1332" t="n">
         <v>0</v>
       </c>
       <c r="H1332" t="n">
-        <v>3347</v>
+        <v>407</v>
       </c>
       <c r="I1332" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J1332" t="n">
-        <v>7.0625</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="K1332" t="n">
-        <v>2.3125</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="L1332" t="n">
         <v>105.9803</v>
@@ -63550,22 +63550,22 @@
         <v>3388</v>
       </c>
       <c r="F1343" t="n">
-        <v>5.307150236127509</v>
+        <v>7.076200314836678</v>
       </c>
       <c r="G1343" t="n">
         <v>0</v>
       </c>
       <c r="H1343" t="n">
-        <v>1110</v>
+        <v>39</v>
       </c>
       <c r="I1343" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J1343" t="n">
-        <v>7.4375</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="K1343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1343" t="n">
         <v>105.7245</v>
@@ -64067,22 +64067,22 @@
         <v>5044</v>
       </c>
       <c r="F1354" t="n">
-        <v>5.205206681205393</v>
+        <v>6.940275574940523</v>
       </c>
       <c r="G1354" t="n">
         <v>0</v>
       </c>
       <c r="H1354" t="n">
-        <v>1951</v>
+        <v>145</v>
       </c>
       <c r="I1354" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J1354" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1354" t="n">
-        <v>2.4375</v>
+        <v>3.25</v>
       </c>
       <c r="L1354" t="n">
         <v>105.15</v>
@@ -64584,22 +64584,22 @@
         <v>5144</v>
       </c>
       <c r="F1365" t="n">
-        <v>4.8784141718507</v>
+        <v>6.504552229134267</v>
       </c>
       <c r="G1365" t="n">
         <v>0</v>
       </c>
       <c r="H1365" t="n">
-        <v>2713</v>
+        <v>589</v>
       </c>
       <c r="I1365" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J1365" t="n">
-        <v>7.1875</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="K1365" t="n">
-        <v>2.0625</v>
+        <v>2.75</v>
       </c>
       <c r="L1365" t="n">
         <v>103.0235</v>
@@ -65101,22 +65101,22 @@
         <v>4452</v>
       </c>
       <c r="F1376" t="n">
-        <v>4.943859501347709</v>
+        <v>6.591812668463612</v>
       </c>
       <c r="G1376" t="n">
         <v>0</v>
       </c>
       <c r="H1376" t="n">
-        <v>2270</v>
+        <v>312</v>
       </c>
       <c r="I1376" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J1376" t="n">
-        <v>7.3125</v>
+        <v>9.75</v>
       </c>
       <c r="K1376" t="n">
-        <v>2.375</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="L1376" t="n">
         <v>107.7148</v>
@@ -65618,22 +65618,22 @@
         <v>4420</v>
       </c>
       <c r="F1387" t="n">
-        <v>5.064691742081448</v>
+        <v>6.752922322775263</v>
       </c>
       <c r="G1387" t="n">
         <v>0</v>
       </c>
       <c r="H1387" t="n">
-        <v>1953</v>
+        <v>180</v>
       </c>
       <c r="I1387" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J1387" t="n">
-        <v>7.25</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="K1387" t="n">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="L1387" t="n">
         <v>105.5552</v>

--- a/processed/subject_statistics.xlsx
+++ b/processed/subject_statistics.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Number of Scores &lt; 1</t>
+          <t>Number of Scores &lt;= 1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -526,7 +526,7 @@
         <v>6.765761363280395</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>15349</v>
@@ -573,7 +573,7 @@
         <v>6.65252623539136</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
         <v>10699</v>
@@ -620,7 +620,7 @@
         <v>5.83159590830302</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H4" t="n">
         <v>31966</v>
@@ -667,7 +667,7 @@
         <v>6.840207368864062</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>3655</v>
@@ -714,7 +714,7 @@
         <v>6.310386334976499</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
         <v>7131</v>
@@ -761,7 +761,7 @@
         <v>4.640575142034399</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>16254</v>
@@ -808,7 +808,7 @@
         <v>6.476566213860758</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>11395</v>
@@ -855,7 +855,7 @@
         <v>6.557573940558582</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>5159</v>
@@ -1043,7 +1043,7 @@
         <v>7.057076604751828</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>5286</v>
@@ -1090,7 +1090,7 @@
         <v>6.340578052773497</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>6653</v>
@@ -1137,7 +1137,7 @@
         <v>6.396445002662151</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
         <v>17998</v>
@@ -1184,7 +1184,7 @@
         <v>6.467969284736482</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>6017</v>
@@ -1278,7 +1278,7 @@
         <v>4.987089778651398</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
         <v>24282</v>
@@ -1325,7 +1325,7 @@
         <v>6.450350915670578</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>5714</v>
@@ -1560,7 +1560,7 @@
         <v>6.916196709553056</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>2826</v>
@@ -1654,7 +1654,7 @@
         <v>5.776133098058987</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>7621</v>
@@ -1795,7 +1795,7 @@
         <v>5.174038985823337</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>3251</v>
@@ -1842,7 +1842,7 @@
         <v>6.851995905834186</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>1802</v>
@@ -2077,7 +2077,7 @@
         <v>6.749634038446072</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>1764</v>
@@ -2171,7 +2171,7 @@
         <v>5.754125772446384</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>4159</v>
@@ -2218,7 +2218,7 @@
         <v>6.614551957831325</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>773</v>
@@ -2312,7 +2312,7 @@
         <v>4.602447353443369</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>3511</v>
@@ -2359,7 +2359,7 @@
         <v>5.786790592874243</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>2127</v>
@@ -2594,7 +2594,7 @@
         <v>4.696837323082299</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>3341</v>
@@ -2688,7 +2688,7 @@
         <v>3.789812332439678</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>4226</v>
@@ -3111,7 +3111,7 @@
         <v>5.173134328358208</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>2212</v>
@@ -3205,7 +3205,7 @@
         <v>4.201535955317664</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
         <v>3140</v>
@@ -3299,7 +3299,7 @@
         <v>6.962380952380952</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>48</v>
@@ -4145,7 +4145,7 @@
         <v>6.227780132824643</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>1440</v>
@@ -4662,7 +4662,7 @@
         <v>5.790142042005586</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>2484</v>
@@ -4756,7 +4756,7 @@
         <v>4.661655296691981</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H92" t="n">
         <v>4962</v>
@@ -5226,7 +5226,7 @@
         <v>5.896648340029604</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
         <v>2199</v>
@@ -5273,7 +5273,7 @@
         <v>4.42883954533439</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
         <v>5198</v>
@@ -5461,7 +5461,7 @@
         <v>6.256216642406598</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>1777</v>
@@ -5790,7 +5790,7 @@
         <v>4.20526106018334</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>1850</v>
@@ -6213,7 +6213,7 @@
         <v>5.921993382402594</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H123" t="n">
         <v>4597</v>
@@ -6307,7 +6307,7 @@
         <v>4.718849270664506</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
         <v>7588</v>
@@ -6448,7 +6448,7 @@
         <v>4.892198248905566</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>1790</v>
@@ -6495,7 +6495,7 @@
         <v>6.0977193132314</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>2813</v>
@@ -6824,7 +6824,7 @@
         <v>4.94957805907173</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>3764</v>
@@ -7247,7 +7247,7 @@
         <v>5.287386888273314</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>4644</v>
@@ -7764,7 +7764,7 @@
         <v>6.446442283081648</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>2747</v>
@@ -7858,7 +7858,7 @@
         <v>5.064107196627522</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>7195</v>
@@ -7952,7 +7952,7 @@
         <v>7.101708839960565</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>362</v>
@@ -7999,7 +7999,7 @@
         <v>5.313941825476429</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>1275</v>
@@ -8281,7 +8281,7 @@
         <v>6.91986301369863</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>1740</v>
@@ -8516,7 +8516,7 @@
         <v>5.542322097378277</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>1346</v>
@@ -8563,7 +8563,7 @@
         <v>7.172422707062351</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>935</v>
@@ -8798,7 +8798,7 @@
         <v>5.933725972428969</v>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H178" t="n">
         <v>4655</v>
@@ -8892,7 +8892,7 @@
         <v>5.23370715526773</v>
       </c>
       <c r="G180" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H180" t="n">
         <v>6256</v>
@@ -9080,7 +9080,7 @@
         <v>6.146209104396034</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>2997</v>
@@ -9315,7 +9315,7 @@
         <v>6.469324702074444</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>3816</v>
@@ -9409,7 +9409,7 @@
         <v>5.072877822814129</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
         <v>9058</v>
@@ -9597,7 +9597,7 @@
         <v>6.55775593616193</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>2293</v>
@@ -9644,7 +9644,7 @@
         <v>6.971865056172478</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>755</v>
@@ -9832,7 +9832,7 @@
         <v>6.875250666328215</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200" t="n">
         <v>2044</v>
@@ -10349,7 +10349,7 @@
         <v>6.705076741440378</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>3202</v>
@@ -10443,7 +10443,7 @@
         <v>5.173951305368142</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H213" t="n">
         <v>8630</v>
@@ -10631,7 +10631,7 @@
         <v>6.379608091915133</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>2558</v>
@@ -10725,7 +10725,7 @@
         <v>8.339415067004708</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>49</v>
@@ -10866,7 +10866,7 @@
         <v>6.626838502985292</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H222" t="n">
         <v>2327</v>
@@ -10913,7 +10913,7 @@
         <v>5.759279636150235</v>
       </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H223" t="n">
         <v>3520</v>
@@ -10960,7 +10960,7 @@
         <v>4.979608050847458</v>
       </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H224" t="n">
         <v>6087</v>
@@ -11101,7 +11101,7 @@
         <v>4.601861295257522</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H227" t="n">
         <v>2527</v>
@@ -11383,7 +11383,7 @@
         <v>5.341972428419936</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>4113</v>
@@ -11477,7 +11477,7 @@
         <v>4.246979865771812</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H235" t="n">
         <v>6179</v>
@@ -11665,7 +11665,7 @@
         <v>6.274315192470134</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>1816</v>
@@ -11900,7 +11900,7 @@
         <v>6.981420523583343</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>942</v>
@@ -11994,7 +11994,7 @@
         <v>5.118387137935434</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>4095</v>
@@ -12652,7 +12652,7 @@
         <v>5.506720705930638</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H260" t="n">
         <v>3339</v>
@@ -12934,7 +12934,7 @@
         <v>6.997300269973003</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>2167</v>
@@ -12981,7 +12981,7 @@
         <v>6.392333909858582</v>
       </c>
       <c r="G267" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H267" t="n">
         <v>2384</v>
@@ -13028,7 +13028,7 @@
         <v>5.150780174391922</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H268" t="n">
         <v>8890</v>
@@ -13075,7 +13075,7 @@
         <v>6.931650831353919</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H269" t="n">
         <v>936</v>
@@ -13122,7 +13122,7 @@
         <v>7.041489738145789</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>942</v>
@@ -13545,7 +13545,7 @@
         <v>5.459399332591769</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>3874</v>
@@ -13968,7 +13968,7 @@
         <v>6.080123466818292</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H288" t="n">
         <v>10717</v>
@@ -14015,7 +14015,7 @@
         <v>7.181841612631922</v>
       </c>
       <c r="G289" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H289" t="n">
         <v>2232</v>
@@ -14062,7 +14062,7 @@
         <v>4.511683180541408</v>
       </c>
       <c r="G290" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H290" t="n">
         <v>21647</v>
@@ -14156,7 +14156,7 @@
         <v>6.746823278163374</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="n">
         <v>1675</v>
@@ -14203,7 +14203,7 @@
         <v>4.762087490406754</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H293" t="n">
         <v>5461</v>
@@ -14250,7 +14250,7 @@
         <v>6.203061076716991</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294" t="n">
         <v>6496</v>
@@ -14485,7 +14485,7 @@
         <v>6.319012141280353</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H299" t="n">
         <v>8310</v>
@@ -14579,7 +14579,7 @@
         <v>4.557405020560976</v>
       </c>
       <c r="G301" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H301" t="n">
         <v>21498</v>
@@ -14673,7 +14673,7 @@
         <v>7.08779256094008</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="n">
         <v>1178</v>
@@ -14720,7 +14720,7 @@
         <v>4.947412767644726</v>
       </c>
       <c r="G304" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H304" t="n">
         <v>5382</v>
@@ -14767,7 +14767,7 @@
         <v>6.413323699421965</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H305" t="n">
         <v>4405</v>
@@ -15002,7 +15002,7 @@
         <v>6.547950005840439</v>
       </c>
       <c r="G310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H310" t="n">
         <v>2804</v>
@@ -15096,7 +15096,7 @@
         <v>4.987249343106072</v>
       </c>
       <c r="G312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H312" t="n">
         <v>8082</v>
@@ -15190,7 +15190,7 @@
         <v>7.224700239808153</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="n">
         <v>415</v>
@@ -15284,7 +15284,7 @@
         <v>6.692779186841903</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H316" t="n">
         <v>1669</v>
@@ -15519,7 +15519,7 @@
         <v>5.930560116767013</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H321" t="n">
         <v>3034</v>
@@ -15613,7 +15613,7 @@
         <v>4.623450134770889</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H323" t="n">
         <v>6574</v>
@@ -15754,7 +15754,7 @@
         <v>4.927772126144456</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326" t="n">
         <v>1052</v>
@@ -16036,7 +16036,7 @@
         <v>6.200118175372253</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H332" t="n">
         <v>2177</v>
@@ -16083,7 +16083,7 @@
         <v>5.602319801159901</v>
       </c>
       <c r="G333" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H333" t="n">
         <v>2463</v>
@@ -16130,7 +16130,7 @@
         <v>4.520946626384693</v>
       </c>
       <c r="G334" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H334" t="n">
         <v>5259</v>
@@ -16271,7 +16271,7 @@
         <v>4.718974461292897</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H337" t="n">
         <v>1539</v>
@@ -16318,7 +16318,7 @@
         <v>5.979494476062939</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H338" t="n">
         <v>1648</v>
@@ -16553,7 +16553,7 @@
         <v>6.49129408180364</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H343" t="n">
         <v>2592</v>
@@ -16647,7 +16647,7 @@
         <v>4.898881685575365</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H345" t="n">
         <v>6921</v>
@@ -16694,7 +16694,7 @@
         <v>6.916237113402062</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346" t="n">
         <v>432</v>
@@ -16741,7 +16741,7 @@
         <v>7.045608516815872</v>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347" t="n">
         <v>500</v>
@@ -16788,7 +16788,7 @@
         <v>4.886760009825596</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="n">
         <v>2372</v>
@@ -17070,7 +17070,7 @@
         <v>6.355004847309742</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H354" t="n">
         <v>3537</v>
@@ -17164,7 +17164,7 @@
         <v>4.724010088272384</v>
       </c>
       <c r="G356" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H356" t="n">
         <v>9576</v>
@@ -17211,7 +17211,7 @@
         <v>7.004442864759197</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="n">
         <v>376</v>
@@ -17352,7 +17352,7 @@
         <v>6.061059488020407</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H360" t="n">
         <v>2582</v>
@@ -17587,7 +17587,7 @@
         <v>6.381801582471089</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H365" t="n">
         <v>2634</v>
@@ -17634,7 +17634,7 @@
         <v>6.532277663856611</v>
       </c>
       <c r="G366" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H366" t="n">
         <v>1812</v>
@@ -17681,7 +17681,7 @@
         <v>5.057546854082998</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H367" t="n">
         <v>6146</v>
@@ -17775,7 +17775,7 @@
         <v>6.944677284157586</v>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H369" t="n">
         <v>492</v>
@@ -17822,7 +17822,7 @@
         <v>4.586956521739131</v>
       </c>
       <c r="G370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370" t="n">
         <v>3029</v>
@@ -17869,7 +17869,7 @@
         <v>5.871883492851235</v>
       </c>
       <c r="G371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H371" t="n">
         <v>2349</v>
@@ -18151,7 +18151,7 @@
         <v>5.373200859291085</v>
       </c>
       <c r="G377" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H377" t="n">
         <v>1631</v>
@@ -18198,7 +18198,7 @@
         <v>4.579493087557604</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H378" t="n">
         <v>2834</v>
@@ -18339,7 +18339,7 @@
         <v>5.105744125326371</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H381" t="n">
         <v>737</v>
@@ -18386,7 +18386,7 @@
         <v>6.203220121755847</v>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H382" t="n">
         <v>733</v>
@@ -18715,7 +18715,7 @@
         <v>5.310285584253044</v>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H389" t="n">
         <v>7859</v>
@@ -18997,7 +18997,7 @@
         <v>8.023017241379311</v>
       </c>
       <c r="G395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H395" t="n">
         <v>103</v>
@@ -19138,7 +19138,7 @@
         <v>6.045299392536881</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H398" t="n">
         <v>3818</v>
@@ -19232,7 +19232,7 @@
         <v>4.57232905982906</v>
       </c>
       <c r="G400" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H400" t="n">
         <v>8503</v>
@@ -19326,7 +19326,7 @@
         <v>6.827400940228341</v>
       </c>
       <c r="G402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H402" t="n">
         <v>544</v>
@@ -19420,7 +19420,7 @@
         <v>6.125131578947369</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H404" t="n">
         <v>2237</v>
@@ -19702,7 +19702,7 @@
         <v>5.568154346815435</v>
       </c>
       <c r="G410" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H410" t="n">
         <v>2939</v>
@@ -19749,7 +19749,7 @@
         <v>4.638150851581509</v>
       </c>
       <c r="G411" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H411" t="n">
         <v>6390</v>
@@ -19890,7 +19890,7 @@
         <v>4.687943809817845</v>
       </c>
       <c r="G414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H414" t="n">
         <v>1975</v>
@@ -19937,7 +19937,7 @@
         <v>5.73906976744186</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H415" t="n">
         <v>2301</v>
@@ -20172,7 +20172,7 @@
         <v>5.86282675678362</v>
       </c>
       <c r="G420" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H420" t="n">
         <v>6502</v>
@@ -20219,7 +20219,7 @@
         <v>5.999675243567324</v>
       </c>
       <c r="G421" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H421" t="n">
         <v>3738</v>
@@ -20266,7 +20266,7 @@
         <v>4.41088927260954</v>
       </c>
       <c r="G422" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H422" t="n">
         <v>12521</v>
@@ -20360,7 +20360,7 @@
         <v>6.344324914250078</v>
       </c>
       <c r="G424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H424" t="n">
         <v>1481</v>
@@ -20454,7 +20454,7 @@
         <v>5.601398474391573</v>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H426" t="n">
         <v>4849</v>
@@ -20501,7 +20501,7 @@
         <v>6.209222699788738</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H427" t="n">
         <v>2051</v>
@@ -20548,7 +20548,7 @@
         <v>7.40488003253355</v>
       </c>
       <c r="G428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H428" t="n">
         <v>390</v>
@@ -20689,7 +20689,7 @@
         <v>6.423492245835726</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431" t="n">
         <v>2701</v>
@@ -20783,7 +20783,7 @@
         <v>5.272036959260815</v>
       </c>
       <c r="G433" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H433" t="n">
         <v>5691</v>
@@ -20971,7 +20971,7 @@
         <v>5.886871508379889</v>
       </c>
       <c r="G437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H437" t="n">
         <v>2221</v>
@@ -21206,7 +21206,7 @@
         <v>6.617204608888572</v>
       </c>
       <c r="G442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H442" t="n">
         <v>1894</v>
@@ -21300,7 +21300,7 @@
         <v>5.301557679283618</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H444" t="n">
         <v>6276</v>
@@ -21723,7 +21723,7 @@
         <v>6.232273284891951</v>
       </c>
       <c r="G453" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H453" t="n">
         <v>2395</v>
@@ -21817,7 +21817,7 @@
         <v>4.868019781578405</v>
       </c>
       <c r="G455" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H455" t="n">
         <v>5597</v>
@@ -21958,7 +21958,7 @@
         <v>4.673570019723866</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H458" t="n">
         <v>2795</v>
@@ -22005,7 +22005,7 @@
         <v>5.893669100564222</v>
       </c>
       <c r="G459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H459" t="n">
         <v>1673</v>
@@ -22851,7 +22851,7 @@
         <v>4.614991792814153</v>
       </c>
       <c r="G477" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H477" t="n">
         <v>3370</v>
@@ -23274,7 +23274,7 @@
         <v>6.425660770031217</v>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H486" t="n">
         <v>1541</v>
@@ -23321,7 +23321,7 @@
         <v>6.561043802423113</v>
       </c>
       <c r="G487" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H487" t="n">
         <v>709</v>
@@ -23368,7 +23368,7 @@
         <v>4.929797191887676</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H488" t="n">
         <v>4976</v>
@@ -23556,7 +23556,7 @@
         <v>6.060724431818182</v>
       </c>
       <c r="G492" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H492" t="n">
         <v>1339</v>
@@ -23603,7 +23603,7 @@
         <v>6.539206066012489</v>
       </c>
       <c r="G493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H493" t="n">
         <v>395</v>
@@ -23838,7 +23838,7 @@
         <v>6.507149666348904</v>
       </c>
       <c r="G498" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H498" t="n">
         <v>763</v>
@@ -24026,7 +24026,7 @@
         <v>5.079557026476579</v>
       </c>
       <c r="G502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H502" t="n">
         <v>1908</v>
@@ -24073,7 +24073,7 @@
         <v>6.092824074074074</v>
       </c>
       <c r="G503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H503" t="n">
         <v>2036</v>
@@ -24308,7 +24308,7 @@
         <v>6.293352165120534</v>
       </c>
       <c r="G508" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H508" t="n">
         <v>6475</v>
@@ -24355,7 +24355,7 @@
         <v>5.913588496715187</v>
       </c>
       <c r="G509" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H509" t="n">
         <v>6549</v>
@@ -24402,7 +24402,7 @@
         <v>5.343820403614218</v>
       </c>
       <c r="G510" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H510" t="n">
         <v>11406</v>
@@ -24590,7 +24590,7 @@
         <v>5.949467039984281</v>
       </c>
       <c r="G514" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H514" t="n">
         <v>5303</v>
@@ -25107,7 +25107,7 @@
         <v>6.419375</v>
       </c>
       <c r="G525" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H525" t="n">
         <v>1367</v>
@@ -25436,7 +25436,7 @@
         <v>4.985998093981379</v>
       </c>
       <c r="G532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H532" t="n">
         <v>7359</v>
@@ -25859,7 +25859,7 @@
         <v>6.532995034648333</v>
       </c>
       <c r="G541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H541" t="n">
         <v>2509</v>
@@ -25953,7 +25953,7 @@
         <v>5.214293954776188</v>
       </c>
       <c r="G543" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H543" t="n">
         <v>8318</v>
@@ -26470,7 +26470,7 @@
         <v>5.837798099336561</v>
       </c>
       <c r="G554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H554" t="n">
         <v>3993</v>
@@ -26517,7 +26517,7 @@
         <v>6.319571065610521</v>
       </c>
       <c r="G555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H555" t="n">
         <v>1073</v>
@@ -26564,7 +26564,7 @@
         <v>6.132954884971617</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H556" t="n">
         <v>1619</v>
@@ -26611,7 +26611,7 @@
         <v>4.615292173651795</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H557" t="n">
         <v>4214</v>
@@ -26658,7 +26658,7 @@
         <v>6.041581978319783</v>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H558" t="n">
         <v>1495</v>
@@ -26987,7 +26987,7 @@
         <v>5.210893246187364</v>
       </c>
       <c r="G565" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H565" t="n">
         <v>6794</v>
@@ -27410,7 +27410,7 @@
         <v>6.001818963047837</v>
       </c>
       <c r="G574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H574" t="n">
         <v>3485</v>
@@ -27457,7 +27457,7 @@
         <v>6.188819831909033</v>
       </c>
       <c r="G575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H575" t="n">
         <v>1617</v>
@@ -27504,7 +27504,7 @@
         <v>4.592300948433888</v>
       </c>
       <c r="G576" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H576" t="n">
         <v>8026</v>
@@ -27598,7 +27598,7 @@
         <v>6.186868686868687</v>
       </c>
       <c r="G578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H578" t="n">
         <v>874</v>
@@ -27927,7 +27927,7 @@
         <v>6.486746785444155</v>
       </c>
       <c r="G585" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H585" t="n">
         <v>2120</v>
@@ -28021,7 +28021,7 @@
         <v>5.179714557564225</v>
       </c>
       <c r="G587" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H587" t="n">
         <v>5332</v>
@@ -28115,7 +28115,7 @@
         <v>6.807675628794449</v>
       </c>
       <c r="G589" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H589" t="n">
         <v>669</v>
@@ -28538,7 +28538,7 @@
         <v>4.934524700598802</v>
       </c>
       <c r="G598" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H598" t="n">
         <v>5918</v>
@@ -29055,7 +29055,7 @@
         <v>5.092787061994609</v>
       </c>
       <c r="G609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H609" t="n">
         <v>4766</v>
@@ -29572,7 +29572,7 @@
         <v>4.185971759843876</v>
       </c>
       <c r="G620" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H620" t="n">
         <v>6412</v>
@@ -29995,7 +29995,7 @@
         <v>5.92243648607285</v>
       </c>
       <c r="G629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H629" t="n">
         <v>2628</v>
@@ -30089,7 +30089,7 @@
         <v>4.448261670096394</v>
       </c>
       <c r="G631" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H631" t="n">
         <v>6229</v>
@@ -30136,7 +30136,7 @@
         <v>6.19882989870765</v>
       </c>
       <c r="G632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H632" t="n">
         <v>500</v>
@@ -30183,7 +30183,7 @@
         <v>6.253955968352253</v>
       </c>
       <c r="G633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H633" t="n">
         <v>612</v>
@@ -30606,7 +30606,7 @@
         <v>5.037847222222222</v>
       </c>
       <c r="G642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H642" t="n">
         <v>3019</v>
@@ -30794,7 +30794,7 @@
         <v>6.654776598370773</v>
       </c>
       <c r="G646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H646" t="n">
         <v>553</v>
@@ -31029,7 +31029,7 @@
         <v>6.17627633327007</v>
       </c>
       <c r="G651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H651" t="n">
         <v>2254</v>
@@ -31546,7 +31546,7 @@
         <v>5.481237458193979</v>
       </c>
       <c r="G662" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H662" t="n">
         <v>2283</v>
@@ -31640,7 +31640,7 @@
         <v>4.046345875542692</v>
       </c>
       <c r="G664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H664" t="n">
         <v>4541</v>
@@ -32063,7 +32063,7 @@
         <v>6.017244943156652</v>
       </c>
       <c r="G673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H673" t="n">
         <v>1875</v>
@@ -32157,7 +32157,7 @@
         <v>4.124408955691248</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H675" t="n">
         <v>4760</v>
@@ -32298,7 +32298,7 @@
         <v>4.727765726681128</v>
       </c>
       <c r="G678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H678" t="n">
         <v>1391</v>
@@ -32580,7 +32580,7 @@
         <v>5.868326073428749</v>
       </c>
       <c r="G684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H684" t="n">
         <v>1856</v>
@@ -32627,7 +32627,7 @@
         <v>6.06876835110493</v>
       </c>
       <c r="G685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H685" t="n">
         <v>699</v>
@@ -32674,7 +32674,7 @@
         <v>4.059550927432476</v>
       </c>
       <c r="G686" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H686" t="n">
         <v>4683</v>
@@ -32862,7 +32862,7 @@
         <v>6.086097773897861</v>
       </c>
       <c r="G690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H690" t="n">
         <v>1080</v>
@@ -33097,7 +33097,7 @@
         <v>6.605229839795033</v>
       </c>
       <c r="G695" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H695" t="n">
         <v>16911</v>
@@ -33191,7 +33191,7 @@
         <v>6.210827807132641</v>
       </c>
       <c r="G697" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H697" t="n">
         <v>27538</v>
@@ -33238,7 +33238,7 @@
         <v>6.80611422430337</v>
       </c>
       <c r="G698" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H698" t="n">
         <v>3783</v>
@@ -33285,7 +33285,7 @@
         <v>6.29635678874755</v>
       </c>
       <c r="G699" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H699" t="n">
         <v>6270</v>
@@ -33332,7 +33332,7 @@
         <v>6.048991410470675</v>
       </c>
       <c r="G700" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H700" t="n">
         <v>4544</v>
@@ -33379,7 +33379,7 @@
         <v>5.883090674653809</v>
       </c>
       <c r="G701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H701" t="n">
         <v>20485</v>
@@ -33426,7 +33426,7 @@
         <v>6.005055023408492</v>
       </c>
       <c r="G702" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H702" t="n">
         <v>10904</v>
@@ -33473,7 +33473,7 @@
         <v>8.219095360995301</v>
       </c>
       <c r="G703" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H703" t="n">
         <v>310</v>
@@ -33614,7 +33614,7 @@
         <v>6.918847648078418</v>
       </c>
       <c r="G706" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H706" t="n">
         <v>5362</v>
@@ -33661,7 +33661,7 @@
         <v>6.53508734990495</v>
       </c>
       <c r="G707" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H707" t="n">
         <v>4476</v>
@@ -33708,7 +33708,7 @@
         <v>6.760308204332201</v>
       </c>
       <c r="G708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H708" t="n">
         <v>13201</v>
@@ -33849,7 +33849,7 @@
         <v>6.432573345584307</v>
       </c>
       <c r="G711" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H711" t="n">
         <v>4297</v>
@@ -33896,7 +33896,7 @@
         <v>6.185860078251115</v>
       </c>
       <c r="G712" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H712" t="n">
         <v>7090</v>
@@ -33943,7 +33943,7 @@
         <v>6.189659912572512</v>
       </c>
       <c r="G713" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H713" t="n">
         <v>3644</v>
@@ -34131,7 +34131,7 @@
         <v>6.635062739165258</v>
       </c>
       <c r="G717" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H717" t="n">
         <v>3388</v>
@@ -34225,7 +34225,7 @@
         <v>6.061119391478645</v>
       </c>
       <c r="G719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H719" t="n">
         <v>6281</v>
@@ -34319,7 +34319,7 @@
         <v>6.717057255122088</v>
       </c>
       <c r="G721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H721" t="n">
         <v>935</v>
@@ -34460,7 +34460,7 @@
         <v>6.432872946259082</v>
       </c>
       <c r="G724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H724" t="n">
         <v>1462</v>
@@ -34648,7 +34648,7 @@
         <v>6.52511649580615</v>
       </c>
       <c r="G728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H728" t="n">
         <v>2135</v>
@@ -34836,7 +34836,7 @@
         <v>6.465791420118343</v>
       </c>
       <c r="G732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H732" t="n">
         <v>1084</v>
@@ -35165,7 +35165,7 @@
         <v>4.315411127523388</v>
       </c>
       <c r="G739" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H739" t="n">
         <v>4138</v>
@@ -35259,7 +35259,7 @@
         <v>3.833575581395349</v>
       </c>
       <c r="G741" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H741" t="n">
         <v>4448</v>
@@ -35447,7 +35447,7 @@
         <v>5.203690868133772</v>
       </c>
       <c r="G745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H745" t="n">
         <v>2707</v>
@@ -35494,7 +35494,7 @@
         <v>5.536955011290603</v>
       </c>
       <c r="G746" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H746" t="n">
         <v>1714</v>
@@ -35682,7 +35682,7 @@
         <v>4.892530943235169</v>
       </c>
       <c r="G750" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H750" t="n">
         <v>2502</v>
@@ -35776,7 +35776,7 @@
         <v>4.278721893491124</v>
       </c>
       <c r="G752" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H752" t="n">
         <v>3022</v>
@@ -36011,7 +36011,7 @@
         <v>5.914409722222222</v>
       </c>
       <c r="G757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H757" t="n">
         <v>905</v>
@@ -36481,7 +36481,7 @@
         <v>6.018060527172144</v>
       </c>
       <c r="G767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H767" t="n">
         <v>807</v>
@@ -36716,7 +36716,7 @@
         <v>5.810764430577223</v>
       </c>
       <c r="G772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H772" t="n">
         <v>2278</v>
@@ -36810,7 +36810,7 @@
         <v>4.849940047961631</v>
       </c>
       <c r="G774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H774" t="n">
         <v>4076</v>
@@ -37327,7 +37327,7 @@
         <v>5.041722287658684</v>
       </c>
       <c r="G785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H785" t="n">
         <v>3972</v>
@@ -37750,7 +37750,7 @@
         <v>5.206079363324858</v>
       </c>
       <c r="G794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H794" t="n">
         <v>4117</v>
@@ -37844,7 +37844,7 @@
         <v>4.492842535787321</v>
       </c>
       <c r="G796" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H796" t="n">
         <v>4952</v>
@@ -38032,7 +38032,7 @@
         <v>5.773039762170197</v>
       </c>
       <c r="G800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H800" t="n">
         <v>2534</v>
@@ -38079,7 +38079,7 @@
         <v>6.156269417174102</v>
       </c>
       <c r="G801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H801" t="n">
         <v>1067</v>
@@ -38361,7 +38361,7 @@
         <v>4.362150896206752</v>
       </c>
       <c r="G807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H807" t="n">
         <v>1712</v>
@@ -38784,7 +38784,7 @@
         <v>5.69017829017829</v>
       </c>
       <c r="G816" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H816" t="n">
         <v>5660</v>
@@ -38878,7 +38878,7 @@
         <v>4.960738703339882</v>
       </c>
       <c r="G818" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H818" t="n">
         <v>7212</v>
@@ -39301,7 +39301,7 @@
         <v>5.304460827189804</v>
       </c>
       <c r="G827" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H827" t="n">
         <v>3416</v>
@@ -39395,7 +39395,7 @@
         <v>4.876818450620934</v>
       </c>
       <c r="G829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H829" t="n">
         <v>4084</v>
@@ -39818,7 +39818,7 @@
         <v>4.93836106638039</v>
       </c>
       <c r="G838" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H838" t="n">
         <v>5888</v>
@@ -39912,7 +39912,7 @@
         <v>4.139223454833597</v>
       </c>
       <c r="G840" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H840" t="n">
         <v>7836</v>
@@ -40335,7 +40335,7 @@
         <v>6.190122824974411</v>
       </c>
       <c r="G849" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H849" t="n">
         <v>3530</v>
@@ -40617,7 +40617,7 @@
         <v>6.566623005477495</v>
       </c>
       <c r="G855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H855" t="n">
         <v>1932</v>
@@ -41369,7 +41369,7 @@
         <v>5.73316388129885</v>
       </c>
       <c r="G871" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H871" t="n">
         <v>5324</v>
@@ -41463,7 +41463,7 @@
         <v>5.501505240759713</v>
       </c>
       <c r="G873" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H873" t="n">
         <v>5630</v>
@@ -41651,7 +41651,7 @@
         <v>5.798472724474879</v>
       </c>
       <c r="G877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H877" t="n">
         <v>3833</v>
@@ -41886,7 +41886,7 @@
         <v>6.17918023367171</v>
       </c>
       <c r="G882" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H882" t="n">
         <v>4917</v>
@@ -42732,7 +42732,7 @@
         <v>6.412768766503206</v>
       </c>
       <c r="G900" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H900" t="n">
         <v>1133</v>
@@ -42920,7 +42920,7 @@
         <v>6.502869229354425</v>
       </c>
       <c r="G904" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H904" t="n">
         <v>3784</v>
@@ -43014,7 +43014,7 @@
         <v>5.234456346783593</v>
       </c>
       <c r="G906" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H906" t="n">
         <v>8841</v>
@@ -43155,7 +43155,7 @@
         <v>6.323013380666302</v>
       </c>
       <c r="G909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H909" t="n">
         <v>802</v>
@@ -43249,7 +43249,7 @@
         <v>6.294046871730488</v>
       </c>
       <c r="G911" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H911" t="n">
         <v>1502</v>
@@ -43437,7 +43437,7 @@
         <v>6.378380864765409</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H915" t="n">
         <v>2993</v>
@@ -43484,7 +43484,7 @@
         <v>6.514807502467917</v>
       </c>
       <c r="G916" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H916" t="n">
         <v>2029</v>
@@ -43531,7 +43531,7 @@
         <v>5.317048177836543</v>
       </c>
       <c r="G917" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H917" t="n">
         <v>5663</v>
@@ -43578,7 +43578,7 @@
         <v>6.774517873941675</v>
       </c>
       <c r="G918" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H918" t="n">
         <v>627</v>
@@ -43672,7 +43672,7 @@
         <v>5.963070884871551</v>
       </c>
       <c r="G920" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H920" t="n">
         <v>796</v>
@@ -43719,7 +43719,7 @@
         <v>5.797650427195055</v>
       </c>
       <c r="G921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H921" t="n">
         <v>3163</v>
@@ -43954,7 +43954,7 @@
         <v>5.139951420424544</v>
       </c>
       <c r="G926" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H926" t="n">
         <v>4478</v>
@@ -44001,7 +44001,7 @@
         <v>6.736241400875548</v>
       </c>
       <c r="G927" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H927" t="n">
         <v>811</v>
@@ -44048,7 +44048,7 @@
         <v>4.417479478512796</v>
       </c>
       <c r="G928" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H928" t="n">
         <v>5848</v>
@@ -44330,7 +44330,7 @@
         <v>8.264208151177549</v>
       </c>
       <c r="G934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H934" t="n">
         <v>54</v>
@@ -44612,7 +44612,7 @@
         <v>6.936300463269358</v>
       </c>
       <c r="G940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H940" t="n">
         <v>355</v>
@@ -44659,7 +44659,7 @@
         <v>6.955212801055757</v>
       </c>
       <c r="G941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H941" t="n">
         <v>326</v>
@@ -45082,7 +45082,7 @@
         <v>5.855275928224805</v>
       </c>
       <c r="G950" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H950" t="n">
         <v>5730</v>
@@ -45176,7 +45176,7 @@
         <v>7.253783617956846</v>
       </c>
       <c r="G952" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H952" t="n">
         <v>523</v>
@@ -45505,7 +45505,7 @@
         <v>6.719348090488933</v>
       </c>
       <c r="G959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H959" t="n">
         <v>2772</v>
@@ -45599,7 +45599,7 @@
         <v>5.388849201919856</v>
       </c>
       <c r="G961" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H961" t="n">
         <v>8261</v>
@@ -45646,7 +45646,7 @@
         <v>6.67415600875677</v>
       </c>
       <c r="G962" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H962" t="n">
         <v>1289</v>
@@ -45693,7 +45693,7 @@
         <v>6.966402025083419</v>
       </c>
       <c r="G963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H963" t="n">
         <v>842</v>
@@ -45787,7 +45787,7 @@
         <v>6.398606550475709</v>
       </c>
       <c r="G965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H965" t="n">
         <v>2010</v>
@@ -46210,7 +46210,7 @@
         <v>7.077522255192878</v>
       </c>
       <c r="G974" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H974" t="n">
         <v>278</v>
@@ -46539,7 +46539,7 @@
         <v>5.875711930246207</v>
       </c>
       <c r="G981" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H981" t="n">
         <v>11549</v>
@@ -46633,7 +46633,7 @@
         <v>4.883155921324393</v>
       </c>
       <c r="G983" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H983" t="n">
         <v>18468</v>
@@ -46727,7 +46727,7 @@
         <v>6.757900420597931</v>
       </c>
       <c r="G985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H985" t="n">
         <v>1363</v>
@@ -46774,7 +46774,7 @@
         <v>6.25493534980374</v>
       </c>
       <c r="G986" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H986" t="n">
         <v>1247</v>
@@ -46868,7 +46868,7 @@
         <v>6.22067588947349</v>
       </c>
       <c r="G988" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H988" t="n">
         <v>3722</v>
@@ -47056,7 +47056,7 @@
         <v>6.069428343817818</v>
       </c>
       <c r="G992" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H992" t="n">
         <v>9554</v>
@@ -47150,7 +47150,7 @@
         <v>5.008229388957349</v>
       </c>
       <c r="G994" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H994" t="n">
         <v>18547</v>
@@ -47338,7 +47338,7 @@
         <v>6.148067378553166</v>
       </c>
       <c r="G998" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H998" t="n">
         <v>5735</v>
@@ -47902,7 +47902,7 @@
         <v>6.400553323732282</v>
       </c>
       <c r="G1010" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1010" t="n">
         <v>1343</v>
@@ -48090,7 +48090,7 @@
         <v>5.719898005646116</v>
       </c>
       <c r="G1014" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1014" t="n">
         <v>3431</v>
@@ -48184,7 +48184,7 @@
         <v>4.985485758876317</v>
       </c>
       <c r="G1016" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1016" t="n">
         <v>5568</v>
@@ -48701,7 +48701,7 @@
         <v>4.781346749226006</v>
       </c>
       <c r="G1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1027" t="n">
         <v>4687</v>
@@ -48748,7 +48748,7 @@
         <v>6.588614063777596</v>
       </c>
       <c r="G1028" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1028" t="n">
         <v>373</v>
@@ -48842,7 +48842,7 @@
         <v>6.139447236180905</v>
       </c>
       <c r="G1030" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1030" t="n">
         <v>350</v>
@@ -49124,7 +49124,7 @@
         <v>6.214616226356105</v>
       </c>
       <c r="G1036" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1036" t="n">
         <v>3056</v>
@@ -49218,7 +49218,7 @@
         <v>5.256746363484368</v>
       </c>
       <c r="G1038" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1038" t="n">
         <v>5920</v>
@@ -49453,7 +49453,7 @@
         <v>5.999890817774866</v>
       </c>
       <c r="G1043" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1043" t="n">
         <v>1423</v>
@@ -49641,7 +49641,7 @@
         <v>6.101961018773167</v>
       </c>
       <c r="G1047" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1047" t="n">
         <v>4131</v>
@@ -49688,7 +49688,7 @@
         <v>6.270225249130255</v>
       </c>
       <c r="G1048" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1048" t="n">
         <v>2328</v>
@@ -49735,7 +49735,7 @@
         <v>5.045680875141456</v>
       </c>
       <c r="G1049" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1049" t="n">
         <v>8466</v>
@@ -49923,7 +49923,7 @@
         <v>5.713728584310189</v>
       </c>
       <c r="G1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1053" t="n">
         <v>3339</v>
@@ -50158,7 +50158,7 @@
         <v>6.141765654788092</v>
       </c>
       <c r="G1058" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1058" t="n">
         <v>3168</v>
@@ -50252,7 +50252,7 @@
         <v>5.371342847875446</v>
       </c>
       <c r="G1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1060" t="n">
         <v>5468</v>
@@ -50440,7 +50440,7 @@
         <v>5.605808773132282</v>
       </c>
       <c r="G1064" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1064" t="n">
         <v>2835</v>
@@ -50487,7 +50487,7 @@
         <v>5.617721084544103</v>
       </c>
       <c r="G1065" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1065" t="n">
         <v>2242</v>
@@ -50769,7 +50769,7 @@
         <v>4.749605291231065</v>
       </c>
       <c r="G1071" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1071" t="n">
         <v>2899</v>
@@ -51709,7 +51709,7 @@
         <v>5.68937048503612</v>
       </c>
       <c r="G1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1091" t="n">
         <v>4985</v>
@@ -51803,7 +51803,7 @@
         <v>4.774473931593029</v>
       </c>
       <c r="G1093" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1093" t="n">
         <v>8375</v>
@@ -52038,7 +52038,7 @@
         <v>5.871878916417622</v>
       </c>
       <c r="G1098" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1098" t="n">
         <v>2002</v>
@@ -52226,7 +52226,7 @@
         <v>6.104491046634108</v>
       </c>
       <c r="G1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1102" t="n">
         <v>2456</v>
@@ -52320,7 +52320,7 @@
         <v>4.964268488745981</v>
       </c>
       <c r="G1104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1104" t="n">
         <v>5464</v>
@@ -52461,7 +52461,7 @@
         <v>6.240811153358682</v>
       </c>
       <c r="G1107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1107" t="n">
         <v>346</v>
@@ -52743,7 +52743,7 @@
         <v>5.611179824137598</v>
       </c>
       <c r="G1113" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1113" t="n">
         <v>7617</v>
@@ -52837,7 +52837,7 @@
         <v>4.65911982754088</v>
       </c>
       <c r="G1115" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H1115" t="n">
         <v>12001</v>
@@ -53025,7 +53025,7 @@
         <v>5.400497168899324</v>
       </c>
       <c r="G1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1119" t="n">
         <v>5933</v>
@@ -53307,7 +53307,7 @@
         <v>6.479543707637482</v>
       </c>
       <c r="G1125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1125" t="n">
         <v>1715</v>
@@ -53354,7 +53354,7 @@
         <v>5.571226021684737</v>
       </c>
       <c r="G1126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1126" t="n">
         <v>5021</v>
@@ -53542,7 +53542,7 @@
         <v>5.58323367615403</v>
       </c>
       <c r="G1130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1130" t="n">
         <v>2944</v>
@@ -53777,7 +53777,7 @@
         <v>6.381559696342305</v>
       </c>
       <c r="G1135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1135" t="n">
         <v>2280</v>
@@ -54341,7 +54341,7 @@
         <v>6.581280674136494</v>
       </c>
       <c r="G1147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1147" t="n">
         <v>745</v>
@@ -54388,7 +54388,7 @@
         <v>5.167434048018971</v>
       </c>
       <c r="G1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1148" t="n">
         <v>5045</v>
@@ -54905,7 +54905,7 @@
         <v>6.716250654564496</v>
       </c>
       <c r="G1159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1159" t="n">
         <v>1616</v>
@@ -54952,7 +54952,7 @@
         <v>6.887347308098326</v>
       </c>
       <c r="G1160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1160" t="n">
         <v>507</v>
@@ -55046,7 +55046,7 @@
         <v>6.999543934326543</v>
       </c>
       <c r="G1162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1162" t="n">
         <v>136</v>
@@ -55093,7 +55093,7 @@
         <v>6.691452304394427</v>
       </c>
       <c r="G1163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1163" t="n">
         <v>845</v>
@@ -55140,7 +55140,7 @@
         <v>6.676454777583658</v>
       </c>
       <c r="G1164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1164" t="n">
         <v>268</v>
@@ -55422,7 +55422,7 @@
         <v>4.934951456310679</v>
       </c>
       <c r="G1170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1170" t="n">
         <v>3102</v>
@@ -55845,7 +55845,7 @@
         <v>6.141065206570432</v>
       </c>
       <c r="G1179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1179" t="n">
         <v>2039</v>
@@ -55892,7 +55892,7 @@
         <v>6.594975792905839</v>
       </c>
       <c r="G1180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1180" t="n">
         <v>697</v>
@@ -55939,7 +55939,7 @@
         <v>5.136973410657622</v>
       </c>
       <c r="G1181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1181" t="n">
         <v>4543</v>
@@ -56127,7 +56127,7 @@
         <v>5.854058721934369</v>
       </c>
       <c r="G1185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1185" t="n">
         <v>1724</v>
@@ -56409,7 +56409,7 @@
         <v>6.666830090994666</v>
       </c>
       <c r="G1191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1191" t="n">
         <v>666</v>
@@ -56879,7 +56879,7 @@
         <v>6.149284140969162</v>
       </c>
       <c r="G1201" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1201" t="n">
         <v>7069</v>
@@ -56926,7 +56926,7 @@
         <v>6.454355134474327</v>
       </c>
       <c r="G1202" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1202" t="n">
         <v>4268</v>
@@ -57067,7 +57067,7 @@
         <v>6.570158450704225</v>
       </c>
       <c r="G1205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1205" t="n">
         <v>1340</v>
@@ -57161,7 +57161,7 @@
         <v>5.677764552116884</v>
       </c>
       <c r="G1207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1207" t="n">
         <v>6767</v>
@@ -57443,7 +57443,7 @@
         <v>6.198788581738514</v>
       </c>
       <c r="G1213" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1213" t="n">
         <v>1621</v>
@@ -57725,7 +57725,7 @@
         <v>6.177735100978813</v>
       </c>
       <c r="G1219" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1219" t="n">
         <v>849</v>
@@ -57913,7 +57913,7 @@
         <v>6.236269430051814</v>
       </c>
       <c r="G1223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1223" t="n">
         <v>2884</v>
@@ -58430,7 +58430,7 @@
         <v>6.344694170771757</v>
       </c>
       <c r="G1234" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1234" t="n">
         <v>2960</v>
@@ -58571,7 +58571,7 @@
         <v>6.489343657817109</v>
       </c>
       <c r="G1237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1237" t="n">
         <v>842</v>
@@ -58947,7 +58947,7 @@
         <v>6.62539184952978</v>
       </c>
       <c r="G1245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1245" t="n">
         <v>1495</v>
@@ -59464,7 +59464,7 @@
         <v>6.612061489948759</v>
       </c>
       <c r="G1256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1256" t="n">
         <v>1546</v>
@@ -59793,7 +59793,7 @@
         <v>6.334759325372399</v>
       </c>
       <c r="G1263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1263" t="n">
         <v>692</v>
@@ -59981,7 +59981,7 @@
         <v>5.806460296096904</v>
       </c>
       <c r="G1267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1267" t="n">
         <v>4043</v>
@@ -60075,7 +60075,7 @@
         <v>5.018581673306772</v>
       </c>
       <c r="G1269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1269" t="n">
         <v>6593</v>
@@ -60592,7 +60592,7 @@
         <v>5.46987630827783</v>
       </c>
       <c r="G1280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1280" t="n">
         <v>4638</v>
@@ -61861,7 +61861,7 @@
         <v>6.435098504960179</v>
       </c>
       <c r="G1307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1307" t="n">
         <v>440</v>
@@ -62143,7 +62143,7 @@
         <v>4.383719281663517</v>
       </c>
       <c r="G1313" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1313" t="n">
         <v>5823</v>
@@ -62660,7 +62660,7 @@
         <v>4.762326141715037</v>
       </c>
       <c r="G1324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1324" t="n">
         <v>5418</v>
@@ -64211,7 +64211,7 @@
         <v>4.110461956521739</v>
       </c>
       <c r="G1357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1357" t="n">
         <v>4672</v>
@@ -64634,7 +64634,7 @@
         <v>5.66621490803485</v>
       </c>
       <c r="G1366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1366" t="n">
         <v>2452</v>
@@ -64728,7 +64728,7 @@
         <v>4.362527618205921</v>
       </c>
       <c r="G1368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1368" t="n">
         <v>4707</v>
@@ -65151,7 +65151,7 @@
         <v>5.668691099476439</v>
       </c>
       <c r="G1377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1377" t="n">
         <v>2109</v>
@@ -65245,7 +65245,7 @@
         <v>4.401325966850829</v>
       </c>
       <c r="G1379" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1379" t="n">
         <v>4319</v>
